--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1173AE0F-647C-0A41-819D-DCA38172D2B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1173AE0F-647C-0A41-819D-DCA38172D2B9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="8700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="io_showcase" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="io_showcase" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="495">
   <si>
     <t>description</t>
   </si>
@@ -1532,13 +1532,29 @@
   </si>
   <si>
     <t>compare will failed since file2/file1.txt has the random alphanumeric (row 24)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1615,8 +1631,384 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,8 +2033,620 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -1742,168 +2746,1476 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="92">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="7" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="10" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="13" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="19" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="22" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="25" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="25" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="34" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="37" fontId="28" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="40" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="46" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="49" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="52" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="52" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="61" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="64" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="67" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="73" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="76" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="79" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="79" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="88" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="91" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="94" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="100" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="103" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1937,7 +4249,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1962,10 +4274,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2000,7 +4312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2035,7 +4347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2129,21 +4441,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2160,7 +4472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2212,26 +4524,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +4623,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -2391,7 +4703,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +4777,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -2536,7 +4848,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2598,7 +4910,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -2654,7 +4966,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -2707,7 +5019,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>393</v>
       </c>
@@ -2757,7 +5069,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -2798,7 +5110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>379</v>
       </c>
@@ -2833,7 +5145,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -2865,7 +5177,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -2894,7 +5206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2920,7 +5232,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -2946,7 +5258,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -2972,7 +5284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>454</v>
       </c>
@@ -2995,7 +5307,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>475</v>
       </c>
@@ -3012,7 +5324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>468</v>
       </c>
@@ -3029,7 +5341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>410</v>
       </c>
@@ -3046,7 +5358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>450</v>
       </c>
@@ -3063,7 +5375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3080,7 +5392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3094,7 +5406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3108,7 +5420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -3122,7 +5434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>477</v>
       </c>
@@ -3136,7 +5448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -3150,7 +5462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -3161,7 +5473,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -3172,7 +5484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>164</v>
       </c>
@@ -3183,7 +5495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>165</v>
       </c>
@@ -3194,7 +5506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>166</v>
       </c>
@@ -3205,7 +5517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -3216,7 +5528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>159</v>
       </c>
@@ -3227,7 +5539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>376</v>
       </c>
@@ -3235,7 +5547,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>354</v>
       </c>
@@ -3243,7 +5555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>307</v>
       </c>
@@ -3251,567 +5563,582 @@
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>355</v>
       </c>
       <c r="U37" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
         <v>313</v>
       </c>
       <c r="U38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
         <v>162</v>
       </c>
       <c r="U39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="E40" t="s">
         <v>254</v>
       </c>
       <c r="U40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="E41" t="s">
         <v>335</v>
       </c>
       <c r="U41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="E42" t="s">
         <v>346</v>
       </c>
       <c r="U42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="E43" t="s">
         <v>347</v>
       </c>
       <c r="U43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="E44" t="s">
         <v>389</v>
       </c>
       <c r="U44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="E45" t="s">
         <v>388</v>
       </c>
       <c r="U45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="E46" t="s">
         <v>253</v>
       </c>
       <c r="U46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="E47" t="s">
         <v>348</v>
       </c>
       <c r="U47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="E48" t="s">
         <v>385</v>
       </c>
       <c r="U48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="E49" t="s">
         <v>421</v>
       </c>
       <c r="U49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="E50" t="s">
         <v>349</v>
       </c>
       <c r="U50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="E51" t="s">
         <v>409</v>
       </c>
       <c r="U51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="E52" t="s">
         <v>377</v>
       </c>
       <c r="U52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="E53" t="s">
         <v>314</v>
       </c>
       <c r="U53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="E54" t="s">
         <v>338</v>
       </c>
       <c r="U54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="E55" t="s">
         <v>339</v>
       </c>
       <c r="U55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="E56" t="s">
         <v>340</v>
       </c>
       <c r="U56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="E57" t="s">
         <v>350</v>
       </c>
       <c r="U57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="E58" t="s">
         <v>359</v>
       </c>
       <c r="U58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="E59" t="s">
         <v>383</v>
       </c>
       <c r="U59" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="E60" t="s">
         <v>356</v>
       </c>
       <c r="U60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="E61" t="s">
         <v>357</v>
       </c>
       <c r="U61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="E62" t="s">
         <v>422</v>
       </c>
       <c r="U62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="E63" t="s">
         <v>423</v>
       </c>
       <c r="U63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="E64" t="s">
         <v>391</v>
       </c>
       <c r="U64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="E65" t="s">
         <v>360</v>
       </c>
       <c r="U65" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="E66" t="s">
         <v>315</v>
       </c>
       <c r="U66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="E67" t="s">
         <v>399</v>
       </c>
       <c r="U67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="E68" t="s">
         <v>361</v>
       </c>
       <c r="U68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="E69" t="s">
         <v>464</v>
       </c>
       <c r="U69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="E70" t="s">
         <v>351</v>
       </c>
       <c r="U70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="E71" t="s">
         <v>465</v>
       </c>
       <c r="U71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="E72" t="s">
         <v>308</v>
       </c>
       <c r="U72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="E73" t="s">
         <v>390</v>
       </c>
       <c r="U73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="E74" t="s">
         <v>326</v>
       </c>
       <c r="U74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="E75" t="s">
         <v>332</v>
       </c>
       <c r="U75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="E76" t="s">
         <v>337</v>
       </c>
       <c r="U76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="E77" t="s">
         <v>483</v>
       </c>
       <c r="U77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="E78" t="s">
         <v>378</v>
       </c>
       <c r="U78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="E79" t="s">
         <v>316</v>
       </c>
       <c r="U79" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="E80" t="s">
         <v>327</v>
       </c>
       <c r="U80" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="E81" t="s">
         <v>333</v>
       </c>
       <c r="U81" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="E82" t="s">
         <v>322</v>
       </c>
       <c r="U82" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="E83" t="s">
         <v>317</v>
       </c>
       <c r="U83" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="E84" t="s">
         <v>334</v>
       </c>
       <c r="U84" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="E85" t="s">
         <v>318</v>
       </c>
       <c r="U85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="E86" t="s">
         <v>319</v>
       </c>
       <c r="U86" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="E87" t="s">
         <v>352</v>
       </c>
       <c r="U87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="E88" t="s">
         <v>358</v>
       </c>
       <c r="U88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="E89" t="s">
         <v>341</v>
       </c>
       <c r="U89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="E90" t="s">
         <v>386</v>
       </c>
       <c r="U90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="E91" t="s">
         <v>323</v>
       </c>
       <c r="U91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="E92" t="s">
         <v>324</v>
       </c>
       <c r="U92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="U94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="U95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U93" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U94" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U95" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
-      <c r="U96" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U97" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U98" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U99" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U100" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U101" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U102" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U103" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U104" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U105" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U106" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U107" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U108" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1022"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="true" topLeftCell="A2" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="3"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection activeCell="B32" pane="bottomLeft" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="66.1640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.33203125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.83203125" style="4" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="14.1640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="2.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.1640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.33203125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="7" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="12" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="66.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="34.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="27.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="28.0" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" style="4" width="14.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="2" width="2.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="7" width="11.1640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="5" width="11.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="2" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="12" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +6168,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>173</v>
       </c>
@@ -3861,7 +6188,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7"/>
@@ -3871,7 +6198,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="13" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>267</v>
       </c>
@@ -3916,7 +6243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>187</v>
       </c>
@@ -3943,7 +6270,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
         <v>219</v>
@@ -3972,7 +6299,7 @@
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="3" t="s">
         <v>220</v>
@@ -4001,7 +6328,7 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="3" t="s">
         <v>188</v>
@@ -4028,7 +6355,7 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="6" t="s">
@@ -4053,7 +6380,7 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="6" t="s">
@@ -4078,7 +6405,7 @@
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="6" t="s">
@@ -4103,7 +6430,7 @@
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="6" t="s">
@@ -4128,7 +6455,7 @@
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="6" t="s">
@@ -4151,7 +6478,7 @@
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="6" t="s">
@@ -4174,7 +6501,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="6" t="s">
@@ -4197,7 +6524,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" s="6" t="s">
@@ -4222,7 +6549,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" s="6" t="s">
@@ -4247,7 +6574,7 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>189</v>
       </c>
@@ -4278,7 +6605,7 @@
       <c r="N18"/>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="6" t="s">
@@ -4303,7 +6630,7 @@
       <c r="N19"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="3" t="s">
         <v>203</v>
@@ -4330,7 +6657,7 @@
       <c r="N20"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="6" t="s">
@@ -4357,7 +6684,7 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22" s="6" t="s">
@@ -4382,7 +6709,7 @@
       <c r="N22"/>
       <c r="O22"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="3" t="s">
         <v>204</v>
@@ -4411,7 +6738,7 @@
       <c r="N23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="3" t="s">
         <v>205</v>
@@ -4440,7 +6767,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25" s="6" t="s">
@@ -4467,7 +6794,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="6" t="s">
@@ -4494,7 +6821,7 @@
       <c r="N26"/>
       <c r="O26"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" s="6" t="s">
@@ -4519,7 +6846,7 @@
       <c r="N27"/>
       <c r="O27"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28" s="6" t="s">
@@ -4542,7 +6869,7 @@
       <c r="N28"/>
       <c r="O28"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29" s="6" t="s">
@@ -4567,7 +6894,7 @@
       <c r="N29"/>
       <c r="O29"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" s="6" t="s">
@@ -4590,7 +6917,7 @@
       <c r="N30"/>
       <c r="O30"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="3" t="s">
         <v>489</v>
@@ -4619,7 +6946,7 @@
       <c r="N31"/>
       <c r="O31"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="6" t="s">
@@ -4644,7 +6971,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33" s="6" t="s">
@@ -4669,7 +6996,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="6" t="s">
@@ -4694,7 +7021,7 @@
       <c r="N34"/>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="3" t="s">
         <v>197</v>
@@ -4721,7 +7048,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>402</v>
       </c>
@@ -4750,7 +7077,7 @@
       <c r="N36"/>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" s="6" t="s">
@@ -4777,7 +7104,7 @@
       <c r="N37"/>
       <c r="O37"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="6" t="s">
@@ -4804,7 +7131,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" s="6" t="s">
@@ -4831,7 +7158,7 @@
       <c r="N39"/>
       <c r="O39"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="6" t="s">
@@ -4858,61 +7185,61 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="14"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="49" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:15" s="16" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="49" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="50" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="51" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="52" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="53" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="54" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="55" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="56" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="57" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="58" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="59" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="60" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="62" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="63" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="64" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="65" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="66" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="67" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="68" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="69" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="49" r="70" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="71" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="72" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="73" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="74" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="75" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="76" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="77" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="78" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="79" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="80" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customFormat="1" customHeight="1" ht="48" r="94" s="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
@@ -4929,936 +7256,936 @@
       <c r="N94" s="7"/>
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="97" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="98" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="99" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="100" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="101" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="102" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="103" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="104" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="105" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="106" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="107" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="108" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="109" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="110" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="111" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="112" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="113" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="114" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="115" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="116" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="117" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="118" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="119" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="120" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="121" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="122" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="123" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="124" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="125" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="126" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="127" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="128" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="129" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="130" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="131" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="132" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="133" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="134" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="135" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="136" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="137" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="138" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="139" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="140" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="141" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="142" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="143" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="144" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="145" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="146" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="147" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="148" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="149" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="150" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="151" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="152" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="153" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="154" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="155" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="156" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="157" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="158" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="159" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="160" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="161" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="162" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="163" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="164" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="165" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="166" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="167" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="168" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="169" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="170" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="171" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="172" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="173" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="174" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="175" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="176" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="177" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="178" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="179" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="180" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="181" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="182" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="183" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="184" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="185" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="186" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="187" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="188" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="189" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="190" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="191" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="192" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="193" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="194" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="195" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="196" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="197" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="198" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="199" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="200" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="201" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="202" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="203" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="204" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="205" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="206" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="207" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="208" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="209" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="210" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="211" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="212" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="213" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="214" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="215" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="216" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="217" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="218" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="219" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="220" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="221" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="222" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="223" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="224" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="225" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="226" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="227" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="228" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="229" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="230" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="231" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="232" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="233" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="234" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="235" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="236" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="237" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="238" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="239" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="240" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="241" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="242" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="243" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="244" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="245" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="246" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="247" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="248" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="249" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="250" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="251" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="252" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="253" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="254" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="255" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="256" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="257" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="258" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="259" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="260" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="261" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="262" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="263" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="264" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="265" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="266" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="267" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="268" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="269" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="270" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="271" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="272" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="273" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="274" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="275" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="276" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="277" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="278" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="279" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="280" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="281" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="282" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="283" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="284" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="285" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="286" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="287" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="288" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="289" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="290" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="291" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="292" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="293" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="294" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="295" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="296" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="297" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="298" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="299" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="300" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="301" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="302" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="303" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="304" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="305" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="306" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="307" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="308" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="309" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="310" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="311" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="312" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="313" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="314" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="315" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="316" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="317" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="318" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="319" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="320" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="321" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="322" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="323" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="324" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="325" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="326" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="327" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="328" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="329" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="330" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="331" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="332" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="333" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="334" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="335" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="336" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="337" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="338" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="339" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="340" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="341" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="342" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="343" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="344" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="345" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="346" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="347" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="348" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="349" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="350" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="351" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="352" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="353" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="354" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="355" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="356" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="357" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="358" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="359" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="360" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="361" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="362" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="363" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="364" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="365" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="366" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="367" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="368" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="369" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="370" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="371" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="372" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="373" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="374" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="375" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="376" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="377" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="378" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="379" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="380" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="381" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="382" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="383" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="384" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="385" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="386" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="387" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="388" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="389" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="390" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="391" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="392" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="393" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="394" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="395" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="396" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="397" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="398" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="399" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="400" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="401" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="402" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="403" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="404" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="405" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="406" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="407" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="408" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="409" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="410" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="411" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="412" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="413" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="414" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="415" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="416" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="417" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="418" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="419" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="420" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="421" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="422" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="423" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="424" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="425" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="426" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="427" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="428" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="429" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="430" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="431" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="432" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="433" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="434" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="435" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="436" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="437" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="438" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="439" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="440" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="441" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="442" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="443" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="444" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="445" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="446" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="447" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="448" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="449" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="450" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="451" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="452" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="453" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="454" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="455" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="456" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="457" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="458" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="459" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="460" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="461" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="462" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="463" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="464" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="465" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="466" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="467" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="468" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="469" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="470" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="471" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="472" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="473" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="474" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="475" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="476" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="477" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="478" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="479" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="480" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="481" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="482" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="483" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="484" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="485" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="486" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="487" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="488" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="489" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="490" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="491" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="492" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="493" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="494" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="495" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="496" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="497" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="498" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="499" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="500" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="501" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="502" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="503" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="504" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="505" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="506" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="507" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="508" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="509" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="510" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="511" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="512" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="513" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="514" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="515" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="516" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="517" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="518" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="519" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="520" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="521" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="522" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="523" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="524" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="525" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="526" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="527" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="528" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="529" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="530" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="531" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="532" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="533" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="534" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="535" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="536" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="537" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="538" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="539" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="540" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="541" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="542" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="543" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="544" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="545" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="546" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="547" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="548" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="549" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="550" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="551" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="552" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="553" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="554" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="555" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="556" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="557" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="558" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="559" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="560" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="561" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="562" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="563" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="564" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="565" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="566" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="567" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="568" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="569" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="570" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="571" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="572" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="573" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="574" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="575" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="576" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="577" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="578" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="579" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="580" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="581" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="582" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="583" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="584" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="585" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="586" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="587" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="588" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="589" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="590" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="591" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="592" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="593" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="594" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="595" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="596" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="597" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="598" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="599" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="600" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="601" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="602" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="603" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="604" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="605" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="606" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="607" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="608" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="609" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="610" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="611" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="612" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="613" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="614" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="615" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="616" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="617" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="618" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="619" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="620" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="621" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="622" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="623" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="624" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="625" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="626" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="627" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="628" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="629" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="630" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="631" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="632" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="633" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="634" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="635" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="636" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="637" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="638" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="639" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="640" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="641" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="642" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="643" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="644" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="645" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="646" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="647" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="648" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1006" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1007" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1008" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1009" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1010" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1011" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1012" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1013" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1014" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1015" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1016" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1017" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1018" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1019" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1020" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1021" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1022" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5866,25 +8193,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D720" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D720" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C722" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C722" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1547,6 +1547,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1557,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2007,8 +2010,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2645,8 +2742,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="121">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -2745,6 +2995,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -3894,7 +4426,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4152,49 +4684,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="88" borderId="100" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="88" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="91" borderId="104" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="91" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="94" borderId="108" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="94" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="100" borderId="112" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="100" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="103" borderId="116" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="103" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="106" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="106" borderId="120" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="106" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="115" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="118" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="121" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="127" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="130" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4532,7 +5109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5744,7 +6321,7 @@
         <v>383</v>
       </c>
       <c r="U59" t="s">
-        <v>256</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60">
@@ -5752,7 +6329,7 @@
         <v>356</v>
       </c>
       <c r="U60" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61">
@@ -5760,7 +6337,7 @@
         <v>357</v>
       </c>
       <c r="U61" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62">
@@ -5768,7 +6345,7 @@
         <v>422</v>
       </c>
       <c r="U62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -5776,7 +6353,7 @@
         <v>423</v>
       </c>
       <c r="U63" t="s">
-        <v>491</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
@@ -5784,7 +6361,7 @@
         <v>391</v>
       </c>
       <c r="U64" t="s">
-        <v>87</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
@@ -5792,7 +6369,7 @@
         <v>360</v>
       </c>
       <c r="U65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -5800,7 +6377,7 @@
         <v>315</v>
       </c>
       <c r="U66" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67">
@@ -5808,7 +6385,7 @@
         <v>399</v>
       </c>
       <c r="U67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68">
@@ -5816,7 +6393,7 @@
         <v>361</v>
       </c>
       <c r="U68" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69">
@@ -5824,7 +6401,7 @@
         <v>464</v>
       </c>
       <c r="U69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -5832,7 +6409,7 @@
         <v>351</v>
       </c>
       <c r="U70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
@@ -5840,7 +6417,7 @@
         <v>465</v>
       </c>
       <c r="U71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72">
@@ -5848,7 +6425,7 @@
         <v>308</v>
       </c>
       <c r="U72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73">
@@ -5856,7 +6433,7 @@
         <v>390</v>
       </c>
       <c r="U73" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74">
@@ -5864,7 +6441,7 @@
         <v>326</v>
       </c>
       <c r="U74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75">
@@ -5872,7 +6449,7 @@
         <v>332</v>
       </c>
       <c r="U75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76">
@@ -5880,7 +6457,7 @@
         <v>337</v>
       </c>
       <c r="U76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77">
@@ -5888,7 +6465,7 @@
         <v>483</v>
       </c>
       <c r="U77" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78">
@@ -5896,7 +6473,7 @@
         <v>378</v>
       </c>
       <c r="U78" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79">
@@ -5904,7 +6481,7 @@
         <v>316</v>
       </c>
       <c r="U79" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
@@ -5912,7 +6489,7 @@
         <v>327</v>
       </c>
       <c r="U80" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81">
@@ -5920,7 +6497,7 @@
         <v>333</v>
       </c>
       <c r="U81" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
@@ -5928,7 +6505,7 @@
         <v>322</v>
       </c>
       <c r="U82" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
@@ -5936,7 +6513,7 @@
         <v>317</v>
       </c>
       <c r="U83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84">
@@ -5944,7 +6521,7 @@
         <v>334</v>
       </c>
       <c r="U84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85">
@@ -5952,7 +6529,7 @@
         <v>318</v>
       </c>
       <c r="U85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86">
@@ -5960,7 +6537,7 @@
         <v>319</v>
       </c>
       <c r="U86" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87">
@@ -5968,7 +6545,7 @@
         <v>352</v>
       </c>
       <c r="U87" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88">
@@ -5976,7 +6553,7 @@
         <v>358</v>
       </c>
       <c r="U88" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89">
@@ -5984,7 +6561,7 @@
         <v>341</v>
       </c>
       <c r="U89" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90">
@@ -5992,7 +6569,7 @@
         <v>386</v>
       </c>
       <c r="U90" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91">
@@ -6000,7 +6577,7 @@
         <v>323</v>
       </c>
       <c r="U91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92">
@@ -6008,101 +6585,106 @@
         <v>324</v>
       </c>
       <c r="U92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>117</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1550,6 +1550,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2104,8 +2128,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2895,8 +3013,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="149">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -2995,6 +3266,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -4426,7 +4979,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="122">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4729,49 +5282,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="115" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="115" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="118" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="118" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="121" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="121" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="127" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="127" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="130" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="130" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="133" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="133" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="133" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="142" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="145" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="148" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="154" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="157" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5109,7 +5707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5435,6 +6033,9 @@
       <c r="C5" t="s">
         <v>270</v>
       </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
       <c r="E5" t="s">
         <v>382</v>
       </c>
@@ -5528,7 +6129,7 @@
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>502</v>
       </c>
       <c r="W6" t="s">
         <v>127</v>
@@ -5583,6 +6184,9 @@
       <c r="U7" t="s">
         <v>44</v>
       </c>
+      <c r="V7" t="s">
+        <v>503</v>
+      </c>
       <c r="W7" t="s">
         <v>131</v>
       </c>
@@ -5633,6 +6237,9 @@
       <c r="U8" t="s">
         <v>45</v>
       </c>
+      <c r="V8" t="s">
+        <v>122</v>
+      </c>
       <c r="W8" t="s">
         <v>128</v>
       </c>
@@ -5701,7 +6308,7 @@
         <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
       <c r="M10" t="s">
         <v>488</v>
@@ -5736,7 +6343,7 @@
         <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M11" t="s">
         <v>169</v>
@@ -5768,7 +6375,7 @@
         <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -5796,6 +6403,9 @@
       <c r="I13" t="s">
         <v>193</v>
       </c>
+      <c r="K13" t="s">
+        <v>237</v>
+      </c>
       <c r="M13" t="s">
         <v>170</v>
       </c>
@@ -5946,7 +6556,7 @@
         <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -5963,7 +6573,7 @@
         <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -5979,6 +6589,9 @@
       <c r="E22" t="s">
         <v>345</v>
       </c>
+      <c r="I22" t="s">
+        <v>157</v>
+      </c>
       <c r="U22" t="s">
         <v>55</v>
       </c>
@@ -6209,7 +6822,7 @@
         <v>388</v>
       </c>
       <c r="U45" t="s">
-        <v>255</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46">
@@ -6217,7 +6830,7 @@
         <v>253</v>
       </c>
       <c r="U46" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
@@ -6225,7 +6838,7 @@
         <v>348</v>
       </c>
       <c r="U47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
@@ -6233,7 +6846,7 @@
         <v>385</v>
       </c>
       <c r="U48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
@@ -6241,7 +6854,7 @@
         <v>421</v>
       </c>
       <c r="U49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -6249,7 +6862,7 @@
         <v>349</v>
       </c>
       <c r="U50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -6257,7 +6870,7 @@
         <v>409</v>
       </c>
       <c r="U51" t="s">
-        <v>392</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -6265,7 +6878,7 @@
         <v>377</v>
       </c>
       <c r="U52" t="s">
-        <v>78</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
@@ -6273,7 +6886,7 @@
         <v>314</v>
       </c>
       <c r="U53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -6281,7 +6894,7 @@
         <v>338</v>
       </c>
       <c r="U54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -6289,7 +6902,7 @@
         <v>339</v>
       </c>
       <c r="U55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -6297,7 +6910,7 @@
         <v>340</v>
       </c>
       <c r="U56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -6305,7 +6918,7 @@
         <v>350</v>
       </c>
       <c r="U57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -6313,7 +6926,7 @@
         <v>359</v>
       </c>
       <c r="U58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -6321,7 +6934,7 @@
         <v>383</v>
       </c>
       <c r="U59" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
@@ -6329,7 +6942,7 @@
         <v>356</v>
       </c>
       <c r="U60" t="s">
-        <v>256</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61">
@@ -6337,7 +6950,7 @@
         <v>357</v>
       </c>
       <c r="U61" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62">
@@ -6345,7 +6958,7 @@
         <v>422</v>
       </c>
       <c r="U62" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63">
@@ -6353,7 +6966,7 @@
         <v>423</v>
       </c>
       <c r="U63" t="s">
-        <v>86</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64">
@@ -6361,7 +6974,7 @@
         <v>391</v>
       </c>
       <c r="U64" t="s">
-        <v>491</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -6369,7 +6982,7 @@
         <v>360</v>
       </c>
       <c r="U65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -6377,7 +6990,7 @@
         <v>315</v>
       </c>
       <c r="U66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -6385,7 +6998,7 @@
         <v>399</v>
       </c>
       <c r="U67" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -6393,7 +7006,7 @@
         <v>361</v>
       </c>
       <c r="U68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
@@ -6401,7 +7014,7 @@
         <v>464</v>
       </c>
       <c r="U69" t="s">
-        <v>89</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70">
@@ -6409,7 +7022,7 @@
         <v>351</v>
       </c>
       <c r="U70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -6417,7 +7030,7 @@
         <v>465</v>
       </c>
       <c r="U71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
@@ -6425,7 +7038,7 @@
         <v>308</v>
       </c>
       <c r="U72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73">
@@ -6433,7 +7046,7 @@
         <v>390</v>
       </c>
       <c r="U73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -6441,7 +7054,7 @@
         <v>326</v>
       </c>
       <c r="U74" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
@@ -6449,7 +7062,7 @@
         <v>332</v>
       </c>
       <c r="U75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76">
@@ -6457,7 +7070,7 @@
         <v>337</v>
       </c>
       <c r="U76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77">
@@ -6465,7 +7078,7 @@
         <v>483</v>
       </c>
       <c r="U77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78">
@@ -6473,7 +7086,7 @@
         <v>378</v>
       </c>
       <c r="U78" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79">
@@ -6481,7 +7094,7 @@
         <v>316</v>
       </c>
       <c r="U79" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80">
@@ -6489,7 +7102,7 @@
         <v>327</v>
       </c>
       <c r="U80" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81">
@@ -6497,7 +7110,7 @@
         <v>333</v>
       </c>
       <c r="U81" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82">
@@ -6505,7 +7118,7 @@
         <v>322</v>
       </c>
       <c r="U82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83">
@@ -6513,7 +7126,7 @@
         <v>317</v>
       </c>
       <c r="U83" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84">
@@ -6521,7 +7134,7 @@
         <v>334</v>
       </c>
       <c r="U84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85">
@@ -6529,7 +7142,7 @@
         <v>318</v>
       </c>
       <c r="U85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86">
@@ -6537,7 +7150,7 @@
         <v>319</v>
       </c>
       <c r="U86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87">
@@ -6545,7 +7158,7 @@
         <v>352</v>
       </c>
       <c r="U87" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88">
@@ -6553,7 +7166,7 @@
         <v>358</v>
       </c>
       <c r="U88" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89">
@@ -6561,7 +7174,7 @@
         <v>341</v>
       </c>
       <c r="U89" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90">
@@ -6569,7 +7182,7 @@
         <v>386</v>
       </c>
       <c r="U90" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91">
@@ -6577,7 +7190,7 @@
         <v>323</v>
       </c>
       <c r="U91" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92">
@@ -6585,106 +7198,116 @@
         <v>324</v>
       </c>
       <c r="U92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>111</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>117</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1581,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2222,8 +2222,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3166,8 +3260,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="205">
     <border>
       <left/>
       <right/>
@@ -3266,6 +3513,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -4979,7 +5508,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5327,49 +5856,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="142" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="142" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="145" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="145" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="148" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="148" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="154" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="154" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="157" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="157" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="160" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="160" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="160" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="169" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="172" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="175" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="181" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="184" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1581,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2316,8 +2316,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3413,8 +3507,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="205">
+  <borders count="233">
     <border>
       <left/>
       <right/>
@@ -3513,6 +3760,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5508,7 +6037,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5901,49 +6430,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="169" borderId="184" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="169" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="172" borderId="188" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="172" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="175" borderId="192" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="175" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="181" borderId="196" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="181" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="184" borderId="200" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="184" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="187" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="187" borderId="204" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="187" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="196" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="199" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="202" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="208" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="211" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1581,7 +1581,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2410,8 +2410,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="221">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3660,8 +3754,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="233">
+  <borders count="261">
     <border>
       <left/>
       <right/>
@@ -3760,6 +4007,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6037,7 +6566,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="167">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6475,49 +7004,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="196" borderId="212" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="212" fillId="196" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="199" borderId="216" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="199" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="202" borderId="220" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="202" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="208" borderId="224" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="208" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="211" borderId="228" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="211" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="214" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="214" borderId="232" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="214" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="223" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="226" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="229" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="235" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="238" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7312,7 +7886,7 @@
         <v>191</v>
       </c>
       <c r="K7" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -7368,7 +7942,7 @@
         <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
         <v>167</v>
@@ -7418,7 +7992,7 @@
         <v>443</v>
       </c>
       <c r="K9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M9" t="s">
         <v>168</v>
@@ -7456,7 +8030,7 @@
         <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
+        <v>234</v>
       </c>
       <c r="M10" t="s">
         <v>488</v>
@@ -7491,7 +8065,7 @@
         <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>235</v>
+        <v>498</v>
       </c>
       <c r="M11" t="s">
         <v>169</v>
@@ -7523,7 +8097,7 @@
         <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -7552,7 +8126,7 @@
         <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M13" t="s">
         <v>170</v>
@@ -7579,6 +8153,9 @@
       </c>
       <c r="I14" t="s">
         <v>201</v>
+      </c>
+      <c r="K14" t="s">
+        <v>237</v>
       </c>
       <c r="M14" t="s">
         <v>171</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1574,6 +1574,12 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1587,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2504,8 +2510,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="275">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3907,8 +4007,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="261">
+  <borders count="289">
     <border>
       <left/>
       <right/>
@@ -4007,6 +4260,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6566,7 +7101,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7049,49 +7584,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="223" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="240" fillId="223" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="226" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="226" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="229" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="229" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="235" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="235" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="238" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="238" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="241" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="241" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="241" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="244" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="244" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="250" borderId="268" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="253" borderId="272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="256" borderId="276" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="262" borderId="280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="265" borderId="284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="268" borderId="288" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="268" borderId="288" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="271" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="271" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7617,7 +8197,7 @@
         <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>374</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
         <v>149</v>
@@ -7691,7 +8271,7 @@
         <v>440</v>
       </c>
       <c r="F4" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="H4" t="s">
         <v>397</v>
@@ -7762,7 +8342,7 @@
         <v>382</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
         <v>394</v>
@@ -7824,7 +8404,7 @@
         <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I6" t="s">
         <v>150</v>
@@ -7880,7 +8460,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I7" t="s">
         <v>191</v>
@@ -7936,7 +8516,7 @@
         <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I8" t="s">
         <v>151</v>
@@ -7988,6 +8568,9 @@
       <c r="E9" t="s">
         <v>353</v>
       </c>
+      <c r="F9" t="s">
+        <v>370</v>
+      </c>
       <c r="I9" t="s">
         <v>443</v>
       </c>
@@ -8025,6 +8608,9 @@
       </c>
       <c r="E10" t="s">
         <v>398</v>
+      </c>
+      <c r="F10" t="s">
+        <v>371</v>
       </c>
       <c r="I10" t="s">
         <v>152</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1580,6 +1580,21 @@
   </si>
   <si>
     <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2604,8 +2619,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="275">
+  <fills count="329">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4160,8 +4363,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="289">
+  <borders count="345">
     <border>
       <left/>
       <right/>
@@ -4260,6 +4769,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7101,7 +8174,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="212">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7629,49 +8702,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="250" borderId="268" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="268" fillId="250" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="253" borderId="272" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="253" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="256" borderId="276" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="256" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="259" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="262" borderId="280" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="262" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="265" borderId="284" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="265" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="268" borderId="288" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="268" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="268" borderId="288" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="268" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="271" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="274" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="271" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="271" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="296" fillId="277" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="280" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="283" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="289" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="292" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="295" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="295" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="298" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="304" borderId="324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="307" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="310" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="316" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="319" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="322" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="322" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8117,7 +9280,7 @@
         <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>507</v>
       </c>
       <c r="G2" t="s">
         <v>148</v>
@@ -8197,7 +9360,7 @@
         <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
         <v>149</v>
@@ -8271,7 +9434,7 @@
         <v>440</v>
       </c>
       <c r="F4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H4" t="s">
         <v>397</v>
@@ -8342,7 +9505,7 @@
         <v>382</v>
       </c>
       <c r="F5" t="s">
-        <v>374</v>
+        <v>509</v>
       </c>
       <c r="H5" t="s">
         <v>394</v>
@@ -8404,7 +9567,7 @@
         <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="I6" t="s">
         <v>150</v>
@@ -8460,7 +9623,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I7" t="s">
         <v>191</v>
@@ -8516,7 +9679,7 @@
         <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I8" t="s">
         <v>151</v>
@@ -8569,7 +9732,7 @@
         <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="I9" t="s">
         <v>443</v>
@@ -8610,7 +9773,7 @@
         <v>398</v>
       </c>
       <c r="F10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I10" t="s">
         <v>152</v>
@@ -8647,6 +9810,9 @@
       <c r="E11" t="s">
         <v>320</v>
       </c>
+      <c r="F11" t="s">
+        <v>369</v>
+      </c>
       <c r="I11" t="s">
         <v>153</v>
       </c>
@@ -8679,6 +9845,9 @@
       <c r="E12" t="s">
         <v>309</v>
       </c>
+      <c r="F12" t="s">
+        <v>370</v>
+      </c>
       <c r="I12" t="s">
         <v>192</v>
       </c>
@@ -8708,6 +9877,9 @@
       <c r="E13" t="s">
         <v>363</v>
       </c>
+      <c r="F13" t="s">
+        <v>371</v>
+      </c>
       <c r="I13" t="s">
         <v>193</v>
       </c>
@@ -8912,7 +10084,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>271</v>
+        <v>506</v>
       </c>
       <c r="E23" t="s">
         <v>336</v>
@@ -8926,7 +10098,7 @@
         <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E24" t="s">
         <v>325</v>
@@ -8940,7 +10112,7 @@
         <v>477</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
         <v>160</v>
@@ -8954,7 +10126,7 @@
         <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>473</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -8965,7 +10137,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
         <v>312</v>
@@ -8976,7 +10148,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>329</v>
@@ -8987,7 +10159,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
         <v>330</v>
@@ -8998,7 +10170,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
         <v>258</v>
@@ -9009,7 +10181,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
         <v>321</v>
@@ -9020,7 +10192,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="E32" t="s">
         <v>331</v>
@@ -9031,7 +10203,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
         <v>306</v>
@@ -9041,6 +10213,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
       <c r="E34" t="s">
         <v>376</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6071" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6997" uniqueCount="513">
   <si>
     <t>description</t>
   </si>
@@ -1595,6 +1595,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2807,8 +2813,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="329">
+  <fills count="383">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4669,8 +4863,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="345">
+  <borders count="401">
     <border>
       <left/>
       <right/>
@@ -4769,6 +5269,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8174,7 +9238,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="242">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8792,49 +9856,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="304" borderId="324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="324" fillId="304" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="307" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="307" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="310" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="310" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="316" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="316" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="319" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="319" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="322" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="322" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="322" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="322" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="325" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="325" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="352" fillId="331" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="334" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="337" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="343" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="346" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="349" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="349" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="352" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="358" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="361" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="364" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="370" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="373" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="376" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="376" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9172,7 +10326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10564,7 +11718,7 @@
         <v>483</v>
       </c>
       <c r="U77" t="s">
-        <v>243</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78">
@@ -10572,7 +11726,7 @@
         <v>378</v>
       </c>
       <c r="U78" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79">
@@ -10580,7 +11734,7 @@
         <v>316</v>
       </c>
       <c r="U79" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80">
@@ -10588,7 +11742,7 @@
         <v>327</v>
       </c>
       <c r="U80" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81">
@@ -10596,7 +11750,7 @@
         <v>333</v>
       </c>
       <c r="U81" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -10604,7 +11758,7 @@
         <v>322</v>
       </c>
       <c r="U82" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83">
@@ -10612,7 +11766,7 @@
         <v>317</v>
       </c>
       <c r="U83" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84">
@@ -10620,7 +11774,7 @@
         <v>334</v>
       </c>
       <c r="U84" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85">
@@ -10628,7 +11782,7 @@
         <v>318</v>
       </c>
       <c r="U85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86">
@@ -10636,7 +11790,7 @@
         <v>319</v>
       </c>
       <c r="U86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87">
@@ -10644,7 +11798,7 @@
         <v>352</v>
       </c>
       <c r="U87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88">
@@ -10652,7 +11806,7 @@
         <v>358</v>
       </c>
       <c r="U88" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89">
@@ -10660,7 +11814,7 @@
         <v>341</v>
       </c>
       <c r="U89" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90">
@@ -10668,7 +11822,7 @@
         <v>386</v>
       </c>
       <c r="U90" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91">
@@ -10676,7 +11830,7 @@
         <v>323</v>
       </c>
       <c r="U91" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -10684,116 +11838,121 @@
         <v>324</v>
       </c>
       <c r="U92" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>501</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>110</v>
+        <v>501</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>117</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6997" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7461" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1601,6 +1601,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1608,7 +1611,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3001,8 +3004,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="383">
+  <fills count="410">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5169,8 +5266,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="401">
+  <borders count="429">
     <border>
       <left/>
       <right/>
@@ -5269,6 +5519,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9238,7 +9770,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="257">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9946,49 +10478,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="358" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="380" fillId="358" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="361" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="361" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="364" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="364" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="370" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="373" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="376" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="376" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="379" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="370" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="373" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="376" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="376" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="379" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="382" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="379" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="385" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="388" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="391" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="397" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="400" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="403" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="403" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10326,7 +10903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11662,7 +12239,7 @@
         <v>351</v>
       </c>
       <c r="U70" t="s">
-        <v>89</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71">
@@ -11670,7 +12247,7 @@
         <v>465</v>
       </c>
       <c r="U71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -11678,7 +12255,7 @@
         <v>308</v>
       </c>
       <c r="U72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -11686,7 +12263,7 @@
         <v>390</v>
       </c>
       <c r="U73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -11694,7 +12271,7 @@
         <v>326</v>
       </c>
       <c r="U74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -11702,7 +12279,7 @@
         <v>332</v>
       </c>
       <c r="U75" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
@@ -11710,7 +12287,7 @@
         <v>337</v>
       </c>
       <c r="U76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77">
@@ -11718,7 +12295,7 @@
         <v>483</v>
       </c>
       <c r="U77" t="s">
-        <v>512</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78">
@@ -11726,7 +12303,7 @@
         <v>378</v>
       </c>
       <c r="U78" t="s">
-        <v>243</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79">
@@ -11734,7 +12311,7 @@
         <v>316</v>
       </c>
       <c r="U79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80">
@@ -11742,7 +12319,7 @@
         <v>327</v>
       </c>
       <c r="U80" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81">
@@ -11750,7 +12327,7 @@
         <v>333</v>
       </c>
       <c r="U81" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82">
@@ -11758,7 +12335,7 @@
         <v>322</v>
       </c>
       <c r="U82" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -11766,7 +12343,7 @@
         <v>317</v>
       </c>
       <c r="U83" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84">
@@ -11774,7 +12351,7 @@
         <v>334</v>
       </c>
       <c r="U84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85">
@@ -11782,7 +12359,7 @@
         <v>318</v>
       </c>
       <c r="U85" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86">
@@ -11790,7 +12367,7 @@
         <v>319</v>
       </c>
       <c r="U86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87">
@@ -11798,7 +12375,7 @@
         <v>352</v>
       </c>
       <c r="U87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88">
@@ -11806,7 +12383,7 @@
         <v>358</v>
       </c>
       <c r="U88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89">
@@ -11814,7 +12391,7 @@
         <v>341</v>
       </c>
       <c r="U89" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90">
@@ -11822,7 +12399,7 @@
         <v>386</v>
       </c>
       <c r="U90" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91">
@@ -11830,7 +12407,7 @@
         <v>323</v>
       </c>
       <c r="U91" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92">
@@ -11838,121 +12415,126 @@
         <v>324</v>
       </c>
       <c r="U92" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>501</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>110</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>117</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7461" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="515">
   <si>
     <t>description</t>
   </si>
@@ -1604,6 +1604,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1614,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3098,8 +3101,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="410">
+  <fills count="437">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5419,8 +5516,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="429">
+  <borders count="457">
     <border>
       <left/>
       <right/>
@@ -5519,6 +5769,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9770,7 +10302,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="272">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10523,49 +11055,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="385" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="408" fillId="385" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="388" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="388" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="391" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="391" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="394" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="397" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="400" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="403" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="403" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="234" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="420" fillId="397" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="400" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="403" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="403" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="406" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="409" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="406" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="412" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="415" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="418" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="421" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="424" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="427" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="430" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="430" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11236,7 +11813,7 @@
         <v>382</v>
       </c>
       <c r="F5" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H5" t="s">
         <v>394</v>
@@ -11298,7 +11875,7 @@
         <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I6" t="s">
         <v>150</v>
@@ -11354,7 +11931,7 @@
         <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="I7" t="s">
         <v>191</v>
@@ -11410,7 +11987,7 @@
         <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I8" t="s">
         <v>151</v>
@@ -11463,7 +12040,7 @@
         <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>510</v>
+        <v>375</v>
       </c>
       <c r="I9" t="s">
         <v>443</v>
@@ -11504,7 +12081,7 @@
         <v>398</v>
       </c>
       <c r="F10" t="s">
-        <v>368</v>
+        <v>510</v>
       </c>
       <c r="I10" t="s">
         <v>152</v>
@@ -11542,7 +12119,7 @@
         <v>320</v>
       </c>
       <c r="F11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
         <v>153</v>
@@ -11577,7 +12154,7 @@
         <v>309</v>
       </c>
       <c r="F12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I12" t="s">
         <v>192</v>
@@ -11609,7 +12186,7 @@
         <v>363</v>
       </c>
       <c r="F13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I13" t="s">
         <v>193</v>
@@ -11639,6 +12216,9 @@
       </c>
       <c r="E14" t="s">
         <v>310</v>
+      </c>
+      <c r="F14" t="s">
+        <v>371</v>
       </c>
       <c r="I14" t="s">
         <v>201</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7926" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8857" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1617,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3195,8 +3198,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="437">
+  <fills count="491">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5669,8 +5860,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="457">
+  <borders count="513">
     <border>
       <left/>
       <right/>
@@ -5769,6 +6266,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -10302,7 +11363,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="302">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11100,49 +12161,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="412" borderId="436" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="412" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="415" borderId="440" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="440" fillId="415" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="418" borderId="444" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="418" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="421" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="424" borderId="448" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="427" borderId="452" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="430" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="430" borderId="456" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="436" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="433" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="448" fillId="424" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="427" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="430" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="430" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="436" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="433" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="464" fillId="439" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="442" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="445" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="476" fillId="451" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="454" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="457" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="457" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="463" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="460" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="466" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="469" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="472" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="478" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="481" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="484" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="484" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="487" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="487" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12221,7 +13372,7 @@
         <v>371</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>515</v>
       </c>
       <c r="K14" t="s">
         <v>237</v>
@@ -12250,7 +13401,7 @@
         <v>311</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M15" t="s">
         <v>172</v>
@@ -12276,7 +13427,7 @@
         <v>364</v>
       </c>
       <c r="I16" t="s">
-        <v>433</v>
+        <v>202</v>
       </c>
       <c r="N16" t="s">
         <v>298</v>
@@ -12299,7 +13450,7 @@
         <v>213</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="U17" t="s">
         <v>50</v>
@@ -12316,7 +13467,7 @@
         <v>214</v>
       </c>
       <c r="I18" t="s">
-        <v>445</v>
+        <v>154</v>
       </c>
       <c r="U18" t="s">
         <v>51</v>
@@ -12333,7 +13484,7 @@
         <v>342</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -12350,7 +13501,7 @@
         <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>497</v>
+        <v>155</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -12367,7 +13518,7 @@
         <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -12384,7 +13535,7 @@
         <v>345</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -12399,6 +13550,9 @@
       </c>
       <c r="E23" t="s">
         <v>336</v>
+      </c>
+      <c r="I23" t="s">
+        <v>157</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8857" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9325" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3386,8 +3392,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="491">
+  <fills count="518">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6166,8 +6266,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="513">
+  <borders count="541">
     <border>
       <left/>
       <right/>
@@ -6266,6 +6519,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11363,7 +11898,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12251,49 +12786,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="466" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="492" fillId="466" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="469" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="469" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="472" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="472" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="478" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="481" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="275" fillId="484" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="484" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="277" fillId="487" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="279" fillId="487" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="504" fillId="478" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="481" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="484" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="484" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="487" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="493" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="496" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="499" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="505" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="508" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="511" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="511" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12810,7 +13390,7 @@
         <v>426</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>516</v>
       </c>
       <c r="D3" t="s">
         <v>418</v>
@@ -12884,7 +13464,7 @@
         <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>210</v>
@@ -12955,7 +13535,7 @@
         <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>517</v>
       </c>
       <c r="D5" t="s">
         <v>496</v>
@@ -13020,7 +13600,7 @@
         <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>441</v>
@@ -13076,7 +13656,7 @@
         <v>430</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
         <v>419</v>
@@ -13132,7 +13712,7 @@
         <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
         <v>420</v>
@@ -13185,7 +13765,7 @@
         <v>432</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>353</v>
@@ -13226,7 +13806,7 @@
         <v>379</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
         <v>398</v>
@@ -13264,7 +13844,7 @@
         <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>301</v>
       </c>
       <c r="E11" t="s">
         <v>320</v>
@@ -13299,7 +13879,7 @@
         <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
         <v>309</v>
@@ -13331,7 +13911,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>387</v>
       </c>
       <c r="E13" t="s">
         <v>363</v>
@@ -13363,7 +13943,7 @@
         <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>438</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>310</v>
@@ -13395,7 +13975,7 @@
         <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>311</v>
@@ -13421,7 +14001,7 @@
         <v>454</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
         <v>364</v>
@@ -13444,7 +14024,7 @@
         <v>475</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>439</v>
       </c>
       <c r="E17" t="s">
         <v>213</v>
@@ -13461,7 +14041,7 @@
         <v>468</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>466</v>
       </c>
       <c r="E18" t="s">
         <v>214</v>
@@ -13478,7 +14058,7 @@
         <v>410</v>
       </c>
       <c r="C19" t="s">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>342</v>
@@ -13495,7 +14075,7 @@
         <v>450</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>343</v>
@@ -13512,7 +14092,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
         <v>344</v>
@@ -13529,7 +14109,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>345</v>
@@ -13546,7 +14126,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>506</v>
+        <v>367</v>
       </c>
       <c r="E23" t="s">
         <v>336</v>
@@ -13563,7 +14143,7 @@
         <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>325</v>
@@ -13577,7 +14157,7 @@
         <v>477</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="E25" t="s">
         <v>160</v>
@@ -13591,7 +14171,7 @@
         <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>271</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -13602,7 +14182,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="E27" t="s">
         <v>312</v>
@@ -13613,7 +14193,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>473</v>
       </c>
       <c r="E28" t="s">
         <v>329</v>
@@ -13624,7 +14204,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
         <v>330</v>
@@ -13635,7 +14215,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>258</v>
@@ -13646,7 +14226,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>321</v>
@@ -13657,7 +14237,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
         <v>331</v>
@@ -13668,7 +14248,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
         <v>306</v>
@@ -13679,7 +14259,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
         <v>376</v>
@@ -13689,6 +14269,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
       <c r="E35" t="s">
         <v>354</v>
       </c>
@@ -13697,6 +14280,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
       <c r="E36" t="s">
         <v>307</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9325" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9794" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1616,6 +1616,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1626,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3486,8 +3489,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="518">
+  <fills count="545">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6419,8 +6516,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="541">
+  <borders count="569">
     <border>
       <left/>
       <right/>
@@ -6519,6 +6769,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11898,7 +12430,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="332">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12831,49 +13363,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="493" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="520" fillId="493" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="496" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="496" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="499" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="499" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="288" fillId="505" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="289" fillId="508" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="290" fillId="511" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="511" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="514" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="505" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="536" fillId="508" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="511" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="511" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="514" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="514" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="520" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="523" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="526" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="532" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="535" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="538" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="538" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13211,7 +13788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14423,7 +15000,7 @@
         <v>314</v>
       </c>
       <c r="U53" t="s">
-        <v>78</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54">
@@ -14431,7 +15008,7 @@
         <v>338</v>
       </c>
       <c r="U54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -14439,7 +15016,7 @@
         <v>339</v>
       </c>
       <c r="U55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -14447,7 +15024,7 @@
         <v>340</v>
       </c>
       <c r="U56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -14455,7 +15032,7 @@
         <v>350</v>
       </c>
       <c r="U57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -14463,7 +15040,7 @@
         <v>359</v>
       </c>
       <c r="U58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -14471,7 +15048,7 @@
         <v>383</v>
       </c>
       <c r="U59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60">
@@ -14479,7 +15056,7 @@
         <v>356</v>
       </c>
       <c r="U60" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
@@ -14487,7 +15064,7 @@
         <v>357</v>
       </c>
       <c r="U61" t="s">
-        <v>256</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62">
@@ -14495,7 +15072,7 @@
         <v>422</v>
       </c>
       <c r="U62" t="s">
-        <v>442</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63">
@@ -14503,7 +15080,7 @@
         <v>423</v>
       </c>
       <c r="U63" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64">
@@ -14511,7 +15088,7 @@
         <v>391</v>
       </c>
       <c r="U64" t="s">
-        <v>85</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65">
@@ -14519,7 +15096,7 @@
         <v>360</v>
       </c>
       <c r="U65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -14527,7 +15104,7 @@
         <v>315</v>
       </c>
       <c r="U66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
@@ -14535,7 +15112,7 @@
         <v>399</v>
       </c>
       <c r="U67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68">
@@ -14543,7 +15120,7 @@
         <v>361</v>
       </c>
       <c r="U68" t="s">
-        <v>239</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -14551,7 +15128,7 @@
         <v>464</v>
       </c>
       <c r="U69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70">
@@ -14559,7 +15136,7 @@
         <v>351</v>
       </c>
       <c r="U70" t="s">
-        <v>513</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71">
@@ -14567,7 +15144,7 @@
         <v>465</v>
       </c>
       <c r="U71" t="s">
-        <v>89</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72">
@@ -14575,7 +15152,7 @@
         <v>308</v>
       </c>
       <c r="U72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -14583,7 +15160,7 @@
         <v>390</v>
       </c>
       <c r="U73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
@@ -14591,7 +15168,7 @@
         <v>326</v>
       </c>
       <c r="U74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
@@ -14599,7 +15176,7 @@
         <v>332</v>
       </c>
       <c r="U75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -14607,7 +15184,7 @@
         <v>337</v>
       </c>
       <c r="U76" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77">
@@ -14615,7 +15192,7 @@
         <v>483</v>
       </c>
       <c r="U77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78">
@@ -14623,7 +15200,7 @@
         <v>378</v>
       </c>
       <c r="U78" t="s">
-        <v>512</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79">
@@ -14631,7 +15208,7 @@
         <v>316</v>
       </c>
       <c r="U79" t="s">
-        <v>243</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80">
@@ -14639,7 +15216,7 @@
         <v>327</v>
       </c>
       <c r="U80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81">
@@ -14647,7 +15224,7 @@
         <v>333</v>
       </c>
       <c r="U81" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82">
@@ -14655,7 +15232,7 @@
         <v>322</v>
       </c>
       <c r="U82" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83">
@@ -14663,7 +15240,7 @@
         <v>317</v>
       </c>
       <c r="U83" t="s">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
@@ -14671,7 +15248,7 @@
         <v>334</v>
       </c>
       <c r="U84" t="s">
-        <v>492</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85">
@@ -14679,7 +15256,7 @@
         <v>318</v>
       </c>
       <c r="U85" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -14687,7 +15264,7 @@
         <v>319</v>
       </c>
       <c r="U86" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87">
@@ -14695,7 +15272,7 @@
         <v>352</v>
       </c>
       <c r="U87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88">
@@ -14703,7 +15280,7 @@
         <v>358</v>
       </c>
       <c r="U88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89">
@@ -14711,7 +15288,7 @@
         <v>341</v>
       </c>
       <c r="U89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90">
@@ -14719,7 +15296,7 @@
         <v>386</v>
       </c>
       <c r="U90" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91">
@@ -14727,7 +15304,7 @@
         <v>323</v>
       </c>
       <c r="U91" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92">
@@ -14735,126 +15312,131 @@
         <v>324</v>
       </c>
       <c r="U92" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>436</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>97</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>501</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>110</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>117</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -45,7 +45,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9794" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10265" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1619,6 +1619,12 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1632,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3583,8 +3589,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="545">
+  <fills count="572">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6669,8 +6776,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="569">
+  <borders count="597">
     <border>
       <left/>
       <right/>
@@ -6769,6 +7029,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12430,7 +12972,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="348">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13408,49 +13950,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="520" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="548" fillId="520" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="523" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="523" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="526" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="526" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="303" fillId="532" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="304" fillId="535" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="305" fillId="538" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="306" fillId="538" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="541" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="560" fillId="532" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="535" fontId="304" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="538" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="538" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="541" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="544" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="541" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="547" borderId="576" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="550" borderId="580" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="553" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="556" borderId="584" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="559" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="562" borderId="588" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="565" borderId="592" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="568" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="568" borderId="596" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="571" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="556" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14127,7 +14717,7 @@
         <v>394</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>519</v>
       </c>
       <c r="K5" t="s">
         <v>230</v>
@@ -14186,7 +14776,7 @@
         <v>509</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="K6" t="s">
         <v>231</v>
@@ -14242,7 +14832,7 @@
         <v>505</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="K7" t="s">
         <v>362</v>
@@ -14298,7 +14888,7 @@
         <v>374</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="K8" t="s">
         <v>232</v>
@@ -14351,7 +14941,7 @@
         <v>375</v>
       </c>
       <c r="I9" t="s">
-        <v>443</v>
+        <v>151</v>
       </c>
       <c r="K9" t="s">
         <v>233</v>
@@ -14392,7 +14982,7 @@
         <v>510</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>443</v>
       </c>
       <c r="K10" t="s">
         <v>234</v>
@@ -14430,7 +15020,7 @@
         <v>368</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
         <v>498</v>
@@ -14465,7 +15055,7 @@
         <v>369</v>
       </c>
       <c r="I12" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
         <v>235</v>
@@ -14497,7 +15087,7 @@
         <v>370</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
         <v>236</v>
@@ -14529,7 +15119,7 @@
         <v>371</v>
       </c>
       <c r="I14" t="s">
-        <v>515</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
         <v>237</v>
@@ -14558,7 +15148,7 @@
         <v>311</v>
       </c>
       <c r="I15" t="s">
-        <v>201</v>
+        <v>515</v>
       </c>
       <c r="M15" t="s">
         <v>172</v>
@@ -14584,7 +15174,7 @@
         <v>364</v>
       </c>
       <c r="I16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s">
         <v>298</v>
@@ -14607,10 +15197,13 @@
         <v>213</v>
       </c>
       <c r="I17" t="s">
-        <v>433</v>
+        <v>202</v>
       </c>
       <c r="U17" t="s">
         <v>50</v>
+      </c>
+      <c r="X17" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="18">
@@ -14624,7 +15217,7 @@
         <v>214</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="U18" t="s">
         <v>51</v>
@@ -14641,7 +15234,7 @@
         <v>342</v>
       </c>
       <c r="I19" t="s">
-        <v>445</v>
+        <v>154</v>
       </c>
       <c r="U19" t="s">
         <v>52</v>
@@ -14658,7 +15251,7 @@
         <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="U20" t="s">
         <v>53</v>
@@ -14675,7 +15268,7 @@
         <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>497</v>
+        <v>155</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -14692,7 +15285,7 @@
         <v>345</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>497</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
@@ -14709,7 +15302,7 @@
         <v>336</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U23" t="s">
         <v>56</v>
@@ -14724,6 +15317,9 @@
       </c>
       <c r="E24" t="s">
         <v>325</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
       </c>
       <c r="U24" t="s">
         <v>57</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{FEB833C9-4F5C-C04B-B7E5-1A2245D516B5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="8780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8700" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="8780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="8700"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1629,6 +1629,12 @@
   </si>
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1642,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1814,8 +1820,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1993,8 +2100,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2376,6 +2636,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2396,7 +2938,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2519,52 +3061,100 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="7" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="10" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="13" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="16" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="22" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="25" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="28" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="28" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="52" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="55" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="55" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2902,9 +3492,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3004,7 +3594,7 @@
         <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -4116,7 +4706,7 @@
         <v>408</v>
       </c>
       <c r="V51" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52">
@@ -4124,7 +4714,7 @@
         <v>376</v>
       </c>
       <c r="V52" t="s">
-        <v>391</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -4132,7 +4722,7 @@
         <v>313</v>
       </c>
       <c r="V53" t="s">
-        <v>513</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54">
@@ -4140,7 +4730,7 @@
         <v>337</v>
       </c>
       <c r="V54" t="s">
-        <v>78</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55">
@@ -4148,7 +4738,7 @@
         <v>338</v>
       </c>
       <c r="V55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -4156,7 +4746,7 @@
         <v>339</v>
       </c>
       <c r="V56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -4164,7 +4754,7 @@
         <v>349</v>
       </c>
       <c r="V57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -4172,7 +4762,7 @@
         <v>358</v>
       </c>
       <c r="V58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -4180,7 +4770,7 @@
         <v>382</v>
       </c>
       <c r="V59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
@@ -4188,7 +4778,7 @@
         <v>355</v>
       </c>
       <c r="V60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -4196,7 +4786,7 @@
         <v>356</v>
       </c>
       <c r="V61" t="s">
-        <v>492</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
@@ -4204,7 +4794,7 @@
         <v>421</v>
       </c>
       <c r="V62" t="s">
-        <v>255</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63">
@@ -4212,7 +4802,7 @@
         <v>422</v>
       </c>
       <c r="V63" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64">
@@ -4220,7 +4810,7 @@
         <v>390</v>
       </c>
       <c r="V64" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65">
@@ -4228,7 +4818,7 @@
         <v>359</v>
       </c>
       <c r="V65" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66">
@@ -4236,7 +4826,7 @@
         <v>314</v>
       </c>
       <c r="V66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -4244,7 +4834,7 @@
         <v>398</v>
       </c>
       <c r="V67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
@@ -4252,7 +4842,7 @@
         <v>360</v>
       </c>
       <c r="V68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69">
@@ -4260,7 +4850,7 @@
         <v>463</v>
       </c>
       <c r="V69" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -4268,7 +4858,7 @@
         <v>350</v>
       </c>
       <c r="V70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71">
@@ -4276,7 +4866,7 @@
         <v>464</v>
       </c>
       <c r="V71" t="s">
-        <v>508</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72">
@@ -4284,7 +4874,7 @@
         <v>307</v>
       </c>
       <c r="V72" t="s">
-        <v>89</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73">
@@ -4292,7 +4882,7 @@
         <v>389</v>
       </c>
       <c r="V73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74">
@@ -4300,7 +4890,7 @@
         <v>325</v>
       </c>
       <c r="V74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
@@ -4308,7 +4898,7 @@
         <v>331</v>
       </c>
       <c r="V75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -4316,7 +4906,7 @@
         <v>336</v>
       </c>
       <c r="V76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -4324,7 +4914,7 @@
         <v>482</v>
       </c>
       <c r="V77" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78">
@@ -4332,7 +4922,7 @@
         <v>377</v>
       </c>
       <c r="V78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79">
@@ -4340,7 +4930,7 @@
         <v>315</v>
       </c>
       <c r="V79" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80">
@@ -4348,7 +4938,7 @@
         <v>326</v>
       </c>
       <c r="V80" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81">
@@ -4356,7 +4946,7 @@
         <v>332</v>
       </c>
       <c r="V81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82">
@@ -4364,7 +4954,7 @@
         <v>321</v>
       </c>
       <c r="V82" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83">
@@ -4372,7 +4962,7 @@
         <v>316</v>
       </c>
       <c r="V83" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84">
@@ -4380,7 +4970,7 @@
         <v>333</v>
       </c>
       <c r="V84" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85">
@@ -4388,7 +4978,7 @@
         <v>317</v>
       </c>
       <c r="V85" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86">
@@ -4396,7 +4986,7 @@
         <v>318</v>
       </c>
       <c r="V86" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
@@ -4404,7 +4994,7 @@
         <v>351</v>
       </c>
       <c r="V87" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88">
@@ -4412,7 +5002,7 @@
         <v>357</v>
       </c>
       <c r="V88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89">
@@ -4420,7 +5010,7 @@
         <v>340</v>
       </c>
       <c r="V89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90">
@@ -4428,7 +5018,7 @@
         <v>385</v>
       </c>
       <c r="V90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91">
@@ -4436,7 +5026,7 @@
         <v>322</v>
       </c>
       <c r="V91" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92">
@@ -4444,131 +5034,136 @@
         <v>323</v>
       </c>
       <c r="V92" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1635,6 +1635,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1921,8 +1930,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2253,8 +2565,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="65">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -2353,6 +3124,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -2938,7 +4555,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3109,52 +4726,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="44" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="34" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="48" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="37" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="40" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="52" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="43" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="56" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="49" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="52" borderId="60" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="52" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="55" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="55" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="55" borderId="64" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="55" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="61" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="64" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="67" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="70" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="76" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="79" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="82" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="82" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="88" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="91" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="94" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="97" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="103" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="106" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="109" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="109" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="115" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="118" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="121" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="124" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="130" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="133" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="136" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="136" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3612,7 +5373,7 @@
         <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="J2" t="s">
         <v>361</v>
@@ -3695,7 +5456,7 @@
         <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J3" t="s">
         <v>386</v>
@@ -3766,7 +5527,7 @@
         <v>504</v>
       </c>
       <c r="I4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J4" t="s">
         <v>283</v>
@@ -3837,7 +5598,7 @@
         <v>509</v>
       </c>
       <c r="I5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
         <v>514</v>
@@ -3897,6 +5658,9 @@
       </c>
       <c r="G6" t="s">
         <v>505</v>
+      </c>
+      <c r="I6" t="s">
+        <v>393</v>
       </c>
       <c r="J6" t="s">
         <v>208</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1644,6 +1644,9 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2233,8 +2236,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3024,8 +3128,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="149">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -3124,6 +3381,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -4555,7 +5094,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4870,52 +5409,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="115" borderId="128" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="115" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="118" borderId="132" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="118" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="121" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="121" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="124" borderId="136" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="124" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="130" borderId="140" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="130" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="133" borderId="144" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="133" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="136" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="136" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="136" borderId="148" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="136" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="142" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="145" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="148" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="151" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="157" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="160" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="163" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="163" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5253,7 +5840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6646,7 +7233,7 @@
         <v>389</v>
       </c>
       <c r="V73" t="s">
-        <v>89</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74">
@@ -6654,7 +7241,7 @@
         <v>325</v>
       </c>
       <c r="V74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75">
@@ -6662,7 +7249,7 @@
         <v>331</v>
       </c>
       <c r="V75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
@@ -6670,7 +7257,7 @@
         <v>336</v>
       </c>
       <c r="V76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77">
@@ -6678,7 +7265,7 @@
         <v>482</v>
       </c>
       <c r="V77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -6686,7 +7273,7 @@
         <v>377</v>
       </c>
       <c r="V78" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79">
@@ -6694,7 +7281,7 @@
         <v>315</v>
       </c>
       <c r="V79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80">
@@ -6702,7 +7289,7 @@
         <v>326</v>
       </c>
       <c r="V80" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81">
@@ -6710,7 +7297,7 @@
         <v>332</v>
       </c>
       <c r="V81" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82">
@@ -6718,7 +7305,7 @@
         <v>321</v>
       </c>
       <c r="V82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83">
@@ -6726,7 +7313,7 @@
         <v>316</v>
       </c>
       <c r="V83" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84">
@@ -6734,7 +7321,7 @@
         <v>333</v>
       </c>
       <c r="V84" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85">
@@ -6742,7 +7329,7 @@
         <v>317</v>
       </c>
       <c r="V85" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86">
@@ -6750,7 +7337,7 @@
         <v>318</v>
       </c>
       <c r="V86" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87">
@@ -6758,7 +7345,7 @@
         <v>351</v>
       </c>
       <c r="V87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88">
@@ -6766,7 +7353,7 @@
         <v>357</v>
       </c>
       <c r="V88" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89">
@@ -6774,7 +7361,7 @@
         <v>340</v>
       </c>
       <c r="V89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90">
@@ -6782,7 +7369,7 @@
         <v>385</v>
       </c>
       <c r="V90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91">
@@ -6790,7 +7377,7 @@
         <v>322</v>
       </c>
       <c r="V91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92">
@@ -6798,136 +7385,141 @@
         <v>323</v>
       </c>
       <c r="V92" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="531">
   <si>
     <t>description</t>
   </si>
@@ -1647,6 +1647,15 @@
   </si>
   <si>
     <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1663,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2337,8 +2346,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3281,8 +3593,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="177">
+  <borders count="261">
     <border>
       <left/>
       <right/>
@@ -3381,6 +4152,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -5094,7 +6711,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5457,52 +7074,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="142" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="156" fillId="142" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="145" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="160" fillId="145" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="148" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="148" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="151" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="164" fillId="151" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="157" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="168" fillId="157" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="160" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="172" fillId="160" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="163" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="163" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="163" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="176" fillId="163" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="184" fillId="169" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="188" fillId="172" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="175" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="192" fillId="178" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="196" fillId="184" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="200" fillId="187" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="190" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="204" fillId="190" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="212" fillId="196" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="216" fillId="199" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="202" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="220" fillId="205" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="208" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="224" fillId="211" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="228" fillId="214" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="217" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="232" fillId="217" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="220" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="223" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="226" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="229" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="232" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="238" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="241" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="244" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="244" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6708,7 +8469,7 @@
         <v>341</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>530</v>
       </c>
       <c r="V19" t="s">
         <v>52</v>
@@ -6725,7 +8486,7 @@
         <v>342</v>
       </c>
       <c r="J20" t="s">
-        <v>444</v>
+        <v>153</v>
       </c>
       <c r="V20" t="s">
         <v>53</v>
@@ -6742,7 +8503,7 @@
         <v>343</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>444</v>
       </c>
       <c r="V21" t="s">
         <v>54</v>
@@ -6759,7 +8520,7 @@
         <v>344</v>
       </c>
       <c r="J22" t="s">
-        <v>494</v>
+        <v>154</v>
       </c>
       <c r="V22" t="s">
         <v>55</v>
@@ -6776,7 +8537,7 @@
         <v>335</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>494</v>
       </c>
       <c r="V23" t="s">
         <v>56</v>
@@ -6793,7 +8554,7 @@
         <v>324</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V24" t="s">
         <v>57</v>
@@ -6809,6 +8570,9 @@
       <c r="F25" t="s">
         <v>159</v>
       </c>
+      <c r="J25" t="s">
+        <v>156</v>
+      </c>
       <c r="V25" t="s">
         <v>58</v>
       </c>
@@ -6843,7 +8607,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="F28" t="s">
         <v>328</v>
@@ -6854,7 +8618,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>162</v>
+        <v>529</v>
       </c>
       <c r="F29" t="s">
         <v>329</v>
@@ -6865,7 +8629,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>38</v>
+        <v>472</v>
       </c>
       <c r="F30" t="s">
         <v>257</v>
@@ -6876,7 +8640,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
         <v>320</v>
@@ -6887,7 +8651,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
         <v>330</v>
@@ -6898,7 +8662,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
         <v>305</v>
@@ -6909,7 +8673,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
         <v>375</v>
@@ -6920,7 +8684,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
         <v>353</v>
@@ -6931,7 +8695,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F36" t="s">
         <v>306</v>
@@ -6941,6 +8705,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
       <c r="F37" t="s">
         <v>354</v>
       </c>
@@ -6949,6 +8716,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
       <c r="F38" t="s">
         <v>312</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4967" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="533">
   <si>
     <t>description</t>
   </si>
@@ -1656,6 +1656,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1669,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2649,8 +2655,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="248">
+  <fills count="302">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4052,8 +4260,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="261">
+  <borders count="317">
     <border>
       <left/>
       <right/>
@@ -4152,6 +4666,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6711,7 +7789,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7218,52 +8296,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="223" borderId="240" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="240" fillId="223" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="226" borderId="244" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="244" fillId="226" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="229" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="229" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="232" borderId="248" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="248" fillId="232" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="235" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="235" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="238" borderId="252" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="252" fillId="238" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="241" borderId="256" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="256" fillId="241" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="244" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="244" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="244" borderId="260" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="260" fillId="244" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="247" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="247" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="232" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="232" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="268" fillId="250" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="272" fillId="253" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="256" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="276" fillId="259" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="262" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="280" fillId="265" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="284" fillId="268" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="271" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="288" fillId="271" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="274" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="259" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="277" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="280" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="283" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="286" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="292" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="295" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="298" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="298" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8258,7 +9432,7 @@
         <v>151</v>
       </c>
       <c r="L11" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="N11" t="s">
         <v>168</v>
@@ -8293,7 +9467,7 @@
         <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>234</v>
+        <v>495</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
@@ -8325,7 +9499,7 @@
         <v>191</v>
       </c>
       <c r="L13" t="s">
-        <v>235</v>
+        <v>531</v>
       </c>
       <c r="N13" t="s">
         <v>169</v>
@@ -8357,7 +9531,7 @@
         <v>192</v>
       </c>
       <c r="L14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N14" t="s">
         <v>170</v>
@@ -8385,6 +9559,9 @@
       <c r="J15" t="s">
         <v>510</v>
       </c>
+      <c r="L15" t="s">
+        <v>235</v>
+      </c>
       <c r="N15" t="s">
         <v>171</v>
       </c>
@@ -8410,6 +9587,9 @@
       </c>
       <c r="J16" t="s">
         <v>200</v>
+      </c>
+      <c r="L16" t="s">
+        <v>236</v>
       </c>
       <c r="O16" t="s">
         <v>297</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6418" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1662,6 +1662,15 @@
   </si>
   <si>
     <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2857,8 +2866,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="302">
+  <fills count="329">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4566,8 +4676,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="317">
+  <borders count="345">
     <border>
       <left/>
       <right/>
@@ -4666,6 +4929,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7789,7 +8334,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="224">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8392,52 +8937,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="277" borderId="296" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="296" fillId="277" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="280" borderId="300" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="300" fillId="280" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="283" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="283" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="286" borderId="304" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="304" fillId="286" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="289" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="289" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="292" borderId="308" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="308" fillId="292" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="295" borderId="312" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="312" fillId="295" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="298" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="298" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="298" borderId="316" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="316" fillId="298" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="301" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="301" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="286" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="286" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="304" borderId="324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="307" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="310" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="313" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="319" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="322" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="325" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="325" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8775,7 +9368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9374,7 +9967,7 @@
         <v>214</v>
       </c>
       <c r="AA9" t="s">
-        <v>280</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10">
@@ -9412,7 +10005,7 @@
         <v>215</v>
       </c>
       <c r="AA10" t="s">
-        <v>281</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11">
@@ -9447,7 +10040,7 @@
         <v>304</v>
       </c>
       <c r="AA11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -9481,6 +10074,9 @@
       <c r="Y12" t="s">
         <v>140</v>
       </c>
+      <c r="AA12" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -9513,6 +10109,9 @@
       <c r="Y13" t="s">
         <v>141</v>
       </c>
+      <c r="AA13" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -10103,7 +10702,7 @@
         <v>422</v>
       </c>
       <c r="V63" t="s">
-        <v>255</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64">
@@ -10111,7 +10710,7 @@
         <v>390</v>
       </c>
       <c r="V64" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65">
@@ -10119,7 +10718,7 @@
         <v>359</v>
       </c>
       <c r="V65" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66">
@@ -10127,7 +10726,7 @@
         <v>314</v>
       </c>
       <c r="V66" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67">
@@ -10135,7 +10734,7 @@
         <v>398</v>
       </c>
       <c r="V67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -10143,7 +10742,7 @@
         <v>360</v>
       </c>
       <c r="V68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -10151,7 +10750,7 @@
         <v>463</v>
       </c>
       <c r="V69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70">
@@ -10159,7 +10758,7 @@
         <v>350</v>
       </c>
       <c r="V70" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71">
@@ -10167,7 +10766,7 @@
         <v>464</v>
       </c>
       <c r="V71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72">
@@ -10175,7 +10774,7 @@
         <v>307</v>
       </c>
       <c r="V72" t="s">
-        <v>508</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73">
@@ -10183,7 +10782,7 @@
         <v>389</v>
       </c>
       <c r="V73" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74">
@@ -10191,7 +10790,7 @@
         <v>325</v>
       </c>
       <c r="V74" t="s">
-        <v>89</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75">
@@ -10199,7 +10798,7 @@
         <v>331</v>
       </c>
       <c r="V75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
@@ -10207,7 +10806,7 @@
         <v>336</v>
       </c>
       <c r="V76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
@@ -10215,7 +10814,7 @@
         <v>482</v>
       </c>
       <c r="V77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
@@ -10223,7 +10822,7 @@
         <v>377</v>
       </c>
       <c r="V78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
@@ -10231,7 +10830,7 @@
         <v>315</v>
       </c>
       <c r="V79" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
@@ -10239,7 +10838,7 @@
         <v>326</v>
       </c>
       <c r="V80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81">
@@ -10247,7 +10846,7 @@
         <v>332</v>
       </c>
       <c r="V81" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82">
@@ -10255,7 +10854,7 @@
         <v>321</v>
       </c>
       <c r="V82" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83">
@@ -10263,7 +10862,7 @@
         <v>316</v>
       </c>
       <c r="V83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84">
@@ -10271,7 +10870,7 @@
         <v>333</v>
       </c>
       <c r="V84" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85">
@@ -10279,7 +10878,7 @@
         <v>317</v>
       </c>
       <c r="V85" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86">
@@ -10287,7 +10886,7 @@
         <v>318</v>
       </c>
       <c r="V86" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87">
@@ -10295,7 +10894,7 @@
         <v>351</v>
       </c>
       <c r="V87" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88">
@@ -10303,7 +10902,7 @@
         <v>357</v>
       </c>
       <c r="V88" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89">
@@ -10311,7 +10910,7 @@
         <v>340</v>
       </c>
       <c r="V89" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90">
@@ -10319,7 +10918,7 @@
         <v>385</v>
       </c>
       <c r="V90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91">
@@ -10327,7 +10926,7 @@
         <v>322</v>
       </c>
       <c r="V91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92">
@@ -10335,141 +10934,146 @@
         <v>323</v>
       </c>
       <c r="V92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6418" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6912" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1671,6 +1672,30 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1703,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2967,8 +2992,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="329">
+  <fills count="356">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4829,8 +4955,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="345">
+  <borders count="373">
     <border>
       <left/>
       <right/>
@@ -4929,6 +5208,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8334,7 +8895,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="240">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8985,52 +9546,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="304" borderId="324" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="324" fillId="304" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="307" borderId="328" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="328" fillId="307" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="310" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="310" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="313" borderId="332" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="332" fillId="313" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="316" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="316" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="319" borderId="336" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="336" fillId="319" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="322" borderId="340" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="340" fillId="322" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="325" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="325" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="325" borderId="344" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="344" fillId="325" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="328" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="328" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="313" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="313" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="331" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="334" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="337" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="340" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="346" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="349" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="352" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="352" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9368,7 +9977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9417,48 +10026,51 @@
         <v>226</v>
       </c>
       <c r="M1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" t="s">
         <v>237</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>284</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>453</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>474</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>467</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>409</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>449</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>476</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9500,48 +10112,51 @@
         <v>483</v>
       </c>
       <c r="M2" t="s">
+        <v>539</v>
+      </c>
+      <c r="N2" t="s">
         <v>466</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>484</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>298</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>454</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>475</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>473</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>433</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>450</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>117</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>486</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9568,7 +10183,7 @@
         <v>210</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>537</v>
       </c>
       <c r="I3" t="s">
         <v>394</v>
@@ -9582,43 +10197,46 @@
       <c r="L3" t="s">
         <v>227</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>540</v>
+      </c>
+      <c r="O3" t="s">
         <v>485</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>285</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>259</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>455</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>469</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>434</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>451</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>118</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>416</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>135</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9641,6 +10259,9 @@
       <c r="G4" t="s">
         <v>504</v>
       </c>
+      <c r="H4" t="s">
+        <v>538</v>
+      </c>
       <c r="I4" t="s">
         <v>395</v>
       </c>
@@ -9653,43 +10274,46 @@
       <c r="L4" t="s">
         <v>228</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>286</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>260</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>456</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>470</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>452</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>399</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>119</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>124</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>135</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>477</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>275</v>
       </c>
     </row>
@@ -9721,40 +10345,40 @@
       <c r="L5" t="s">
         <v>229</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>287</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>261</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>457</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>471</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>411</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>400</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>120</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>125</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>136</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>478</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9783,37 +10407,37 @@
       <c r="L6" t="s">
         <v>230</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>22</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>288</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>443</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>458</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>413</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>499</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>479</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9839,37 +10463,37 @@
       <c r="L7" t="s">
         <v>361</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>24</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>289</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>468</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>459</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>412</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>44</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>500</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>138</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>480</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9895,34 +10519,34 @@
       <c r="L8" t="s">
         <v>231</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>166</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>290</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>460</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>414</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>45</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>121</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>127</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>139</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>481</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9948,25 +10572,25 @@
       <c r="L9" t="s">
         <v>232</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>167</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>291</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>461</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>415</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>250</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>214</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9989,22 +10613,22 @@
       <c r="L10" t="s">
         <v>233</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>487</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>292</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>462</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>302</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>215</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>535</v>
       </c>
     </row>
@@ -10027,19 +10651,19 @@
       <c r="L11" t="s">
         <v>532</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>168</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>293</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>303</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>304</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>280</v>
       </c>
     </row>
@@ -10062,25 +10686,25 @@
       <c r="L12" t="s">
         <v>495</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>294</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>140</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>536</v>
       </c>
       <c r="D13" t="s">
         <v>386</v>
@@ -10097,25 +10721,25 @@
       <c r="L13" t="s">
         <v>531</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>169</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>299</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>371</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>141</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -10132,22 +10756,22 @@
       <c r="L14" t="s">
         <v>234</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>170</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>295</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>47</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -10161,22 +10785,22 @@
       <c r="L15" t="s">
         <v>235</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>171</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>296</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>48</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
         <v>437</v>
@@ -10190,19 +10814,19 @@
       <c r="L16" t="s">
         <v>236</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>297</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>49</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
         <v>438</v>
@@ -10213,16 +10837,16 @@
       <c r="J17" t="s">
         <v>201</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="D18" t="s">
         <v>465</v>
@@ -10233,13 +10857,13 @@
       <c r="J18" t="s">
         <v>432</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -10250,13 +10874,13 @@
       <c r="J19" t="s">
         <v>530</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -10267,13 +10891,13 @@
       <c r="J20" t="s">
         <v>153</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
         <v>301</v>
@@ -10284,13 +10908,13 @@
       <c r="J21" t="s">
         <v>444</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -10301,13 +10925,13 @@
       <c r="J22" t="s">
         <v>154</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>366</v>
@@ -10318,13 +10942,13 @@
       <c r="J23" t="s">
         <v>494</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>129</v>
@@ -10335,13 +10959,13 @@
       <c r="J24" t="s">
         <v>155</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>502</v>
@@ -10352,13 +10976,13 @@
       <c r="J25" t="s">
         <v>156</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
         <v>270</v>
@@ -10366,13 +10990,13 @@
       <c r="F26" t="s">
         <v>327</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="D27" t="s">
         <v>271</v>
@@ -10380,18 +11004,21 @@
       <c r="F27" t="s">
         <v>311</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="s">
         <v>528</v>
       </c>
       <c r="F28" t="s">
         <v>328</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -10402,7 +11029,7 @@
       <c r="F29" t="s">
         <v>329</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10413,7 +11040,7 @@
       <c r="F30" t="s">
         <v>257</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>62</v>
       </c>
     </row>
@@ -10424,7 +11051,7 @@
       <c r="F31" t="s">
         <v>320</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10435,7 +11062,7 @@
       <c r="F32" t="s">
         <v>330</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10446,7 +11073,7 @@
       <c r="F33" t="s">
         <v>305</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10457,7 +11084,7 @@
       <c r="F34" t="s">
         <v>375</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>251</v>
       </c>
     </row>
@@ -10468,7 +11095,7 @@
       <c r="F35" t="s">
         <v>353</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10479,7 +11106,7 @@
       <c r="F36" t="s">
         <v>306</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>383</v>
       </c>
     </row>
@@ -10490,7 +11117,7 @@
       <c r="F37" t="s">
         <v>354</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>489</v>
       </c>
     </row>
@@ -10501,7 +11128,7 @@
       <c r="F38" t="s">
         <v>312</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>445</v>
       </c>
     </row>
@@ -10509,7 +11136,7 @@
       <c r="F39" t="s">
         <v>161</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10517,7 +11144,7 @@
       <c r="F40" t="s">
         <v>253</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10525,7 +11152,7 @@
       <c r="F41" t="s">
         <v>334</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10533,7 +11160,7 @@
       <c r="F42" t="s">
         <v>345</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10541,7 +11168,7 @@
       <c r="F43" t="s">
         <v>346</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10549,7 +11176,7 @@
       <c r="F44" t="s">
         <v>388</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10557,7 +11184,7 @@
       <c r="F45" t="s">
         <v>387</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>496</v>
       </c>
     </row>
@@ -10565,7 +11192,7 @@
       <c r="F46" t="s">
         <v>252</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>254</v>
       </c>
     </row>
@@ -10573,7 +11200,7 @@
       <c r="F47" t="s">
         <v>347</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10581,7 +11208,7 @@
       <c r="F48" t="s">
         <v>384</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10589,7 +11216,7 @@
       <c r="F49" t="s">
         <v>420</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10597,7 +11224,7 @@
       <c r="F50" t="s">
         <v>348</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10605,475 +11232,485 @@
       <c r="F51" t="s">
         <v>408</v>
       </c>
-      <c r="V51" t="s">
-        <v>523</v>
+      <c r="W51" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>376</v>
       </c>
-      <c r="V52" t="s">
-        <v>77</v>
+      <c r="W52" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>313</v>
       </c>
-      <c r="V53" t="s">
-        <v>391</v>
+      <c r="W53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>337</v>
       </c>
-      <c r="V54" t="s">
-        <v>513</v>
+      <c r="W54" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>338</v>
       </c>
-      <c r="V55" t="s">
-        <v>78</v>
+      <c r="W55" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>339</v>
       </c>
-      <c r="V56" t="s">
-        <v>79</v>
+      <c r="W56" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>349</v>
       </c>
-      <c r="V57" t="s">
-        <v>80</v>
+      <c r="W57" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>358</v>
       </c>
-      <c r="V58" t="s">
-        <v>81</v>
+      <c r="W58" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>382</v>
       </c>
-      <c r="V59" t="s">
-        <v>82</v>
+      <c r="W59" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>355</v>
       </c>
-      <c r="V60" t="s">
-        <v>83</v>
+      <c r="W60" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>356</v>
       </c>
-      <c r="V61" t="s">
-        <v>84</v>
+      <c r="W61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>421</v>
       </c>
-      <c r="V62" t="s">
-        <v>492</v>
+      <c r="W62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>422</v>
       </c>
-      <c r="V63" t="s">
-        <v>533</v>
+      <c r="W63" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>390</v>
       </c>
-      <c r="V64" t="s">
-        <v>255</v>
+      <c r="W64" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>359</v>
       </c>
-      <c r="V65" t="s">
-        <v>441</v>
+      <c r="W65" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>314</v>
       </c>
-      <c r="V66" t="s">
-        <v>497</v>
+      <c r="W66" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>398</v>
       </c>
-      <c r="V67" t="s">
-        <v>85</v>
+      <c r="W67" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>360</v>
       </c>
-      <c r="V68" t="s">
-        <v>86</v>
+      <c r="W68" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>463</v>
       </c>
-      <c r="V69" t="s">
-        <v>87</v>
+      <c r="W69" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>350</v>
       </c>
-      <c r="V70" t="s">
-        <v>88</v>
+      <c r="W70" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>464</v>
       </c>
-      <c r="V71" t="s">
-        <v>238</v>
+      <c r="W71" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>307</v>
       </c>
-      <c r="V72" t="s">
-        <v>239</v>
+      <c r="W72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>389</v>
       </c>
-      <c r="V73" t="s">
-        <v>508</v>
+      <c r="W73" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>325</v>
       </c>
-      <c r="V74" t="s">
-        <v>527</v>
+      <c r="W74" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>331</v>
       </c>
-      <c r="V75" t="s">
-        <v>89</v>
+      <c r="W75" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>336</v>
       </c>
-      <c r="V76" t="s">
-        <v>90</v>
+      <c r="W76" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>482</v>
       </c>
-      <c r="V77" t="s">
-        <v>91</v>
+      <c r="W77" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>377</v>
       </c>
-      <c r="V78" t="s">
-        <v>92</v>
+      <c r="W78" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>315</v>
       </c>
-      <c r="V79" t="s">
-        <v>93</v>
+      <c r="W79" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>326</v>
       </c>
-      <c r="V80" t="s">
-        <v>240</v>
+      <c r="W80" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>332</v>
       </c>
-      <c r="V81" t="s">
-        <v>241</v>
+      <c r="W81" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>321</v>
       </c>
-      <c r="V82" t="s">
-        <v>507</v>
+      <c r="W82" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>316</v>
       </c>
-      <c r="V83" t="s">
-        <v>242</v>
+      <c r="W83" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>333</v>
       </c>
-      <c r="V84" t="s">
-        <v>243</v>
+      <c r="W84" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>317</v>
       </c>
-      <c r="V85" t="s">
-        <v>256</v>
+      <c r="W85" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>318</v>
       </c>
-      <c r="V86" t="s">
-        <v>94</v>
+      <c r="W86" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>351</v>
       </c>
-      <c r="V87" t="s">
-        <v>244</v>
+      <c r="W87" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>357</v>
       </c>
-      <c r="V88" t="s">
-        <v>490</v>
+      <c r="W88" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>340</v>
       </c>
-      <c r="V89" t="s">
-        <v>491</v>
+      <c r="W89" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>385</v>
       </c>
-      <c r="V90" t="s">
-        <v>245</v>
+      <c r="W90" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>322</v>
       </c>
-      <c r="V91" t="s">
-        <v>246</v>
+      <c r="W91" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>323</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6912" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7406" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1696,6 +1696,9 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1706,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3093,8 +3096,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="356">
+  <fills count="383">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5108,8 +5212,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="373">
+  <borders count="401">
     <border>
       <left/>
       <right/>
@@ -5208,6 +5465,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8895,7 +9434,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="256">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9594,52 +10133,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="331" borderId="352" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="352" fillId="331" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="334" borderId="356" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="356" fillId="334" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="337" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="337" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="340" borderId="360" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="360" fillId="340" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="343" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="343" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="346" borderId="364" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="364" fillId="346" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="349" borderId="368" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="368" fillId="349" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="352" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="352" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="352" borderId="372" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="372" fillId="352" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="355" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="355" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="340" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="340" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="358" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="361" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="364" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="367" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="373" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="376" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="379" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="379" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10909,7 +11496,7 @@
         <v>444</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7406" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7900" uniqueCount="545">
   <si>
     <t>description</t>
   </si>
@@ -1706,7 +1706,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3197,8 +3197,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="383">
+  <fills count="410">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5365,8 +5466,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="401">
+  <borders count="429">
     <border>
       <left/>
       <right/>
@@ -5465,6 +5719,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9434,7 +9970,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="272">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10181,52 +10717,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="358" borderId="380" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="380" fillId="358" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="361" borderId="384" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="384" fillId="361" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="364" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="364" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="367" borderId="388" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="388" fillId="367" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="370" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="370" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="373" borderId="392" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="392" fillId="373" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="376" borderId="396" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="396" fillId="376" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="379" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="379" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="379" borderId="400" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="400" fillId="379" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="382" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="382" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="367" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="367" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="385" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="388" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="391" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="394" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="400" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="403" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="406" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="406" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7900" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9388" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1699,6 +1700,21 @@
   </si>
   <si>
     <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1722,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3298,8 +3314,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="410">
+  <fills count="491">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5619,8 +5938,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="429">
+  <borders count="513">
     <border>
       <left/>
       <right/>
@@ -5719,6 +6497,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9970,7 +11594,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="320">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10765,52 +12389,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="385" borderId="408" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="408" fillId="385" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="388" borderId="412" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="412" fillId="388" fontId="237" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="391" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="391" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="394" borderId="416" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="416" fillId="394" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="397" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="243" fillId="400" borderId="420" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="244" fillId="403" borderId="424" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="245" fillId="406" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="246" fillId="406" borderId="428" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="247" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="420" fillId="400" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="424" fillId="403" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="406" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="428" fillId="406" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="394" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="409" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="394" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="436" fillId="412" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="440" fillId="415" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="418" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="444" fillId="421" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="424" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="448" fillId="427" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="452" fillId="430" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="433" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="456" fillId="433" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="436" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="421" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="464" fillId="439" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="468" fillId="442" fontId="269" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="445" fontId="270" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="472" fillId="448" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="451" fontId="273" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="476" fillId="454" fontId="275" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="480" fillId="457" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="460" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="484" fillId="460" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="463" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="448" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="466" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="469" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="472" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="475" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="481" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="484" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="487" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="487" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11148,7 +12916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11170,78 +12938,81 @@
         <v>519</v>
       </c>
       <c r="D1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>207</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>392</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>378</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>226</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>536</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>237</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>216</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>453</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>474</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>467</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>409</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>449</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>476</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -11256,78 +13027,81 @@
         <v>522</v>
       </c>
       <c r="D2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>208</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>160</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>503</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>147</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>526</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>361</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>436</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>483</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>539</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>466</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>484</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>298</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>258</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>454</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>475</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>473</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>433</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>450</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>134</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>486</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -11342,1546 +13116,1558 @@
         <v>521</v>
       </c>
       <c r="D3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E3" t="s">
         <v>511</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>417</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>211</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>210</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>537</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>394</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>386</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>379</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>227</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>540</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>485</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>285</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>259</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>455</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>469</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>434</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>451</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>42</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>123</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>416</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>135</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>426</v>
       </c>
       <c r="D4" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>209</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>439</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>504</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>538</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>395</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>283</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>380</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>228</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>541</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>260</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>456</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>470</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>452</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>399</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>119</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>124</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>135</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>477</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>427</v>
       </c>
       <c r="D5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" t="s">
         <v>512</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>493</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>381</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>509</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>396</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>514</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>229</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>287</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>261</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>457</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>471</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>411</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>400</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>136</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>478</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>428</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>440</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>505</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>393</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>208</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>230</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>288</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>443</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>458</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>413</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>43</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>499</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>126</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>137</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>479</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>429</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>269</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>418</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>501</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>149</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>361</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>289</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>468</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>459</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>412</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>44</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>500</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>130</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>138</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>480</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>430</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>364</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>419</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>373</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>190</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>231</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>166</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>290</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>460</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>414</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>45</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>121</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>127</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>139</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>481</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>431</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>352</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>374</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>150</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>232</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>167</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>291</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>461</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>415</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>250</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>214</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" t="s">
         <v>361</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>397</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>506</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>442</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>233</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>487</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>292</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>462</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>302</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>215</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
         <v>300</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>319</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>367</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>151</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>532</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>168</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>293</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>303</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>304</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" t="s">
         <v>365</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>308</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>368</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>152</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>495</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>294</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>46</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>140</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>536</v>
-      </c>
-      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" t="s">
         <v>386</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>362</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>369</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>191</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>531</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>169</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>299</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>371</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>141</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>309</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>370</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>192</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>234</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>170</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>295</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>310</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>510</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>235</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>171</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>296</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>48</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" t="s">
         <v>437</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>363</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>200</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>236</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>297</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>49</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" t="s">
         <v>438</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>212</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>201</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
         <v>465</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>213</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>432</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>474</v>
-      </c>
-      <c r="D19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>341</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>530</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>342</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>153</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>409</v>
-      </c>
-      <c r="D21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E21" t="s">
         <v>301</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>343</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>444</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>449</v>
-      </c>
-      <c r="D22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>344</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>154</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" t="s">
         <v>366</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>335</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>494</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>324</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>155</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>502</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>159</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>156</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
         <v>270</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>327</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>311</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" t="s">
         <v>528</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>328</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="s">
+      <c r="A29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" t="s">
         <v>529</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>329</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>472</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>257</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>162</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>320</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>330</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>305</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>163</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>375</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>164</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>353</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>165</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>354</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>158</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>312</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>161</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>253</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>334</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>345</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>346</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>388</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>387</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>252</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>347</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>384</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>420</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>348</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>408</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>376</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>313</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>337</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>338</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>339</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>349</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>358</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>382</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>355</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>356</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>421</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>422</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>390</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>359</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>398</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>360</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>463</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>350</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>464</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>307</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>389</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>325</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>331</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>336</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>482</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>377</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>315</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>326</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>332</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>321</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>316</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>333</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>317</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>318</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>351</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>357</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>340</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>385</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>322</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>323</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -47,7 +47,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9388" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9893" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1715,6 +1715,21 @@
   </si>
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1737,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="315" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3617,8 +3632,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="491">
+  <fills count="518">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6397,8 +6513,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="513">
+  <borders count="541">
     <border>
       <left/>
       <right/>
@@ -6497,6 +6766,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -11594,7 +12145,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="336">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12533,52 +13084,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="466" borderId="492" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="492" fillId="466" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="469" borderId="496" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="496" fillId="469" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="472" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="472" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="475" borderId="500" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="500" fillId="475" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="478" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="478" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="291" fillId="481" borderId="504" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="292" fillId="484" borderId="508" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="293" fillId="487" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="294" fillId="487" borderId="512" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="295" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="296" fillId="490" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="297" fillId="475" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="504" fillId="481" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="508" fillId="484" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="487" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="512" fillId="487" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="490" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="475" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="493" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="496" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="499" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="502" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="508" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="511" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="514" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="514" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13102,7 +13701,7 @@
         <v>486</v>
       </c>
       <c r="AC2" t="s">
-        <v>273</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
@@ -13185,7 +13784,7 @@
         <v>135</v>
       </c>
       <c r="AC3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
@@ -13265,7 +13864,7 @@
         <v>477</v>
       </c>
       <c r="AC4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
@@ -13333,7 +13932,7 @@
         <v>478</v>
       </c>
       <c r="AC5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -13392,7 +13991,7 @@
         <v>479</v>
       </c>
       <c r="AC6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -13448,7 +14047,7 @@
         <v>480</v>
       </c>
       <c r="AC7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
@@ -13501,7 +14100,7 @@
         <v>481</v>
       </c>
       <c r="AC8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
@@ -13545,7 +14144,7 @@
         <v>214</v>
       </c>
       <c r="AC9" t="s">
-        <v>534</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
@@ -13583,7 +14182,7 @@
         <v>215</v>
       </c>
       <c r="AC10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
@@ -13618,7 +14217,7 @@
         <v>304</v>
       </c>
       <c r="AC11" t="s">
-        <v>280</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12">
@@ -13653,7 +14252,7 @@
         <v>140</v>
       </c>
       <c r="AC12" t="s">
-        <v>281</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13">
@@ -13688,7 +14287,7 @@
         <v>141</v>
       </c>
       <c r="AC13" t="s">
-        <v>282</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14">
@@ -13722,6 +14321,9 @@
       <c r="AA14" t="s">
         <v>142</v>
       </c>
+      <c r="AC14" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -13751,6 +14353,9 @@
       <c r="AA15" t="s">
         <v>143</v>
       </c>
+      <c r="AC15" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -13777,6 +14382,9 @@
       <c r="AA16" t="s">
         <v>144</v>
       </c>
+      <c r="AC16" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -13797,6 +14405,9 @@
       <c r="AA17" t="s">
         <v>515</v>
       </c>
+      <c r="AC17" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -13813,6 +14424,9 @@
       </c>
       <c r="X18" t="s">
         <v>51</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9893" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10402" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1730,6 +1730,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1749,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="315" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3733,8 +3745,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="518">
+  <fills count="545">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6666,8 +6779,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="541">
+  <borders count="569">
     <border>
       <left/>
       <right/>
@@ -6766,6 +7032,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12145,7 +12693,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="352">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13132,52 +13680,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="493" borderId="520" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="520" fillId="493" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="496" borderId="524" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="524" fillId="496" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="499" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="499" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="502" borderId="528" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="528" fillId="502" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="505" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="505" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="307" fillId="508" borderId="532" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="308" fillId="511" borderId="536" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="309" fillId="514" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="310" fillId="514" borderId="540" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="311" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="312" fillId="517" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="313" fillId="502" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="532" fillId="508" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="536" fillId="511" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="514" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="540" fillId="514" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="517" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="502" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="520" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="523" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="526" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="529" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="535" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="538" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="541" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="541" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13515,7 +14111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14287,7 +14883,7 @@
         <v>141</v>
       </c>
       <c r="AC13" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14">
@@ -14322,7 +14918,7 @@
         <v>142</v>
       </c>
       <c r="AC14" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15">
@@ -14354,7 +14950,7 @@
         <v>143</v>
       </c>
       <c r="AC15" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
@@ -14383,7 +14979,7 @@
         <v>144</v>
       </c>
       <c r="AC16" t="s">
-        <v>280</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17">
@@ -14406,7 +15002,7 @@
         <v>515</v>
       </c>
       <c r="AC17" t="s">
-        <v>281</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18">
@@ -14426,7 +15022,7 @@
         <v>51</v>
       </c>
       <c r="AC18" t="s">
-        <v>282</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19">
@@ -14445,6 +15041,9 @@
       <c r="X19" t="s">
         <v>52</v>
       </c>
+      <c r="AC19" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -14462,6 +15061,9 @@
       <c r="X20" t="s">
         <v>53</v>
       </c>
+      <c r="AC20" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -14479,6 +15081,9 @@
       <c r="X21" t="s">
         <v>544</v>
       </c>
+      <c r="AC21" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -15028,7 +15633,7 @@
         <v>315</v>
       </c>
       <c r="X79" t="s">
-        <v>92</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80">
@@ -15036,7 +15641,7 @@
         <v>326</v>
       </c>
       <c r="X80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81">
@@ -15044,7 +15649,7 @@
         <v>332</v>
       </c>
       <c r="X81" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
@@ -15052,7 +15657,7 @@
         <v>321</v>
       </c>
       <c r="X82" t="s">
-        <v>543</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -15060,7 +15665,7 @@
         <v>316</v>
       </c>
       <c r="X83" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84">
@@ -15068,7 +15673,7 @@
         <v>333</v>
       </c>
       <c r="X84" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85">
@@ -15076,7 +15681,7 @@
         <v>317</v>
       </c>
       <c r="X85" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86">
@@ -15084,7 +15689,7 @@
         <v>318</v>
       </c>
       <c r="X86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87">
@@ -15092,7 +15697,7 @@
         <v>351</v>
       </c>
       <c r="X87" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88">
@@ -15100,7 +15705,7 @@
         <v>357</v>
       </c>
       <c r="X88" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89">
@@ -15108,7 +15713,7 @@
         <v>340</v>
       </c>
       <c r="X89" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -15116,7 +15721,7 @@
         <v>385</v>
       </c>
       <c r="X90" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91">
@@ -15124,7 +15729,7 @@
         <v>322</v>
       </c>
       <c r="X91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92">
@@ -15132,156 +15737,161 @@
         <v>323</v>
       </c>
       <c r="X92" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -33,7 +33,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10402" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11423" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1742,6 +1742,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1758,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="363" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3846,8 +3855,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="545">
+  <fills count="599">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6932,8 +7143,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="569">
+  <borders count="625">
     <border>
       <left/>
       <right/>
@@ -7032,6 +7549,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -12693,7 +13774,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="384">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13728,52 +14809,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="520" borderId="548" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="548" fillId="520" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="523" borderId="552" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="552" fillId="523" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="526" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="526" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="529" borderId="556" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="556" fillId="529" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="532" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="532" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="323" fillId="535" borderId="560" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="324" fillId="538" borderId="564" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="325" fillId="541" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="326" fillId="541" borderId="568" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="327" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="328" fillId="544" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="329" fillId="529" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="560" fillId="535" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="564" fillId="538" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="541" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="568" fillId="541" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="544" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="529" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="576" fillId="547" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="580" fillId="550" fontId="333" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="553" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="584" fillId="556" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="559" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="588" fillId="562" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="592" fillId="565" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="568" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="596" fillId="568" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="556" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="571" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="556" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="574" borderId="604" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="577" borderId="608" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="580" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="583" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="586" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="589" borderId="616" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="592" borderId="620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="595" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="595" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="583" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="598" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="583" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14111,7 +15288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14938,7 +16115,7 @@
         <v>235</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>559</v>
       </c>
       <c r="Q15" t="s">
         <v>296</v>
@@ -14969,6 +16146,9 @@
       <c r="M16" t="s">
         <v>236</v>
       </c>
+      <c r="P16" t="s">
+        <v>560</v>
+      </c>
       <c r="Q16" t="s">
         <v>297</v>
       </c>
@@ -14996,7 +16176,7 @@
         <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>50</v>
+        <v>561</v>
       </c>
       <c r="AA17" t="s">
         <v>515</v>
@@ -15019,7 +16199,7 @@
         <v>432</v>
       </c>
       <c r="X18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC18" t="s">
         <v>558</v>
@@ -15039,7 +16219,7 @@
         <v>530</v>
       </c>
       <c r="X19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC19" t="s">
         <v>280</v>
@@ -15059,7 +16239,7 @@
         <v>153</v>
       </c>
       <c r="X20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC20" t="s">
         <v>281</v>
@@ -15079,7 +16259,7 @@
         <v>444</v>
       </c>
       <c r="X21" t="s">
-        <v>544</v>
+        <v>53</v>
       </c>
       <c r="AC21" t="s">
         <v>282</v>
@@ -15099,7 +16279,7 @@
         <v>154</v>
       </c>
       <c r="X22" t="s">
-        <v>55</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23">
@@ -15116,7 +16296,7 @@
         <v>494</v>
       </c>
       <c r="X23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -15133,7 +16313,7 @@
         <v>155</v>
       </c>
       <c r="X24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -15150,7 +16330,7 @@
         <v>156</v>
       </c>
       <c r="X25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -15164,7 +16344,7 @@
         <v>327</v>
       </c>
       <c r="X26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -15178,7 +16358,7 @@
         <v>311</v>
       </c>
       <c r="X27" t="s">
-        <v>372</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -15192,7 +16372,7 @@
         <v>328</v>
       </c>
       <c r="X28" t="s">
-        <v>60</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29">
@@ -15206,7 +16386,7 @@
         <v>329</v>
       </c>
       <c r="X29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -15217,7 +16397,7 @@
         <v>257</v>
       </c>
       <c r="X30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -15228,7 +16408,7 @@
         <v>320</v>
       </c>
       <c r="X31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -15239,7 +16419,7 @@
         <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -15250,7 +16430,7 @@
         <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -15261,7 +16441,7 @@
         <v>375</v>
       </c>
       <c r="X34" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -15272,7 +16452,7 @@
         <v>353</v>
       </c>
       <c r="X35" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -15283,7 +16463,7 @@
         <v>306</v>
       </c>
       <c r="X36" t="s">
-        <v>383</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -15294,7 +16474,7 @@
         <v>354</v>
       </c>
       <c r="X37" t="s">
-        <v>489</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38">
@@ -15305,7 +16485,7 @@
         <v>312</v>
       </c>
       <c r="X38" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39">
@@ -15313,7 +16493,7 @@
         <v>161</v>
       </c>
       <c r="X39" t="s">
-        <v>67</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40">
@@ -15321,7 +16501,7 @@
         <v>253</v>
       </c>
       <c r="X40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -15329,7 +16509,7 @@
         <v>334</v>
       </c>
       <c r="X41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -15337,7 +16517,7 @@
         <v>345</v>
       </c>
       <c r="X42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -15345,7 +16525,7 @@
         <v>346</v>
       </c>
       <c r="X43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -15353,7 +16533,7 @@
         <v>388</v>
       </c>
       <c r="X44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45">
@@ -15361,7 +16541,7 @@
         <v>387</v>
       </c>
       <c r="X45" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -15369,7 +16549,7 @@
         <v>252</v>
       </c>
       <c r="X46" t="s">
-        <v>254</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47">
@@ -15377,7 +16557,7 @@
         <v>347</v>
       </c>
       <c r="X47" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48">
@@ -15385,7 +16565,7 @@
         <v>384</v>
       </c>
       <c r="X48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
@@ -15393,7 +16573,7 @@
         <v>420</v>
       </c>
       <c r="X49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -15401,7 +16581,7 @@
         <v>348</v>
       </c>
       <c r="X50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -15409,7 +16589,7 @@
         <v>408</v>
       </c>
       <c r="X51" t="s">
-        <v>542</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -15417,7 +16597,7 @@
         <v>376</v>
       </c>
       <c r="X52" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53">
@@ -15425,7 +16605,7 @@
         <v>313</v>
       </c>
       <c r="X53" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54">
@@ -15433,7 +16613,7 @@
         <v>337</v>
       </c>
       <c r="X54" t="s">
-        <v>391</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -15441,7 +16621,7 @@
         <v>338</v>
       </c>
       <c r="X55" t="s">
-        <v>513</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56">
@@ -15449,7 +16629,7 @@
         <v>339</v>
       </c>
       <c r="X56" t="s">
-        <v>78</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57">
@@ -15457,7 +16637,7 @@
         <v>349</v>
       </c>
       <c r="X57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -15465,7 +16645,7 @@
         <v>358</v>
       </c>
       <c r="X58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
@@ -15473,7 +16653,7 @@
         <v>382</v>
       </c>
       <c r="X59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -15481,7 +16661,7 @@
         <v>355</v>
       </c>
       <c r="X60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -15489,7 +16669,7 @@
         <v>356</v>
       </c>
       <c r="X61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
@@ -15497,7 +16677,7 @@
         <v>421</v>
       </c>
       <c r="X62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
@@ -15505,7 +16685,7 @@
         <v>422</v>
       </c>
       <c r="X63" t="s">
-        <v>492</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
@@ -15513,7 +16693,7 @@
         <v>390</v>
       </c>
       <c r="X64" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65">
@@ -15521,7 +16701,7 @@
         <v>359</v>
       </c>
       <c r="X65" t="s">
-        <v>255</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66">
@@ -15529,7 +16709,7 @@
         <v>314</v>
       </c>
       <c r="X66" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67">
@@ -15537,7 +16717,7 @@
         <v>398</v>
       </c>
       <c r="X67" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68">
@@ -15545,7 +16725,7 @@
         <v>360</v>
       </c>
       <c r="X68" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69">
@@ -15553,7 +16733,7 @@
         <v>463</v>
       </c>
       <c r="X69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -15561,7 +16741,7 @@
         <v>350</v>
       </c>
       <c r="X70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
@@ -15569,7 +16749,7 @@
         <v>464</v>
       </c>
       <c r="X71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
@@ -15577,7 +16757,7 @@
         <v>307</v>
       </c>
       <c r="X72" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73">
@@ -15585,7 +16765,7 @@
         <v>389</v>
       </c>
       <c r="X73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74">
@@ -15593,7 +16773,7 @@
         <v>325</v>
       </c>
       <c r="X74" t="s">
-        <v>508</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75">
@@ -15601,7 +16781,7 @@
         <v>331</v>
       </c>
       <c r="X75" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76">
@@ -15609,7 +16789,7 @@
         <v>336</v>
       </c>
       <c r="X76" t="s">
-        <v>89</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77">
@@ -15617,7 +16797,7 @@
         <v>482</v>
       </c>
       <c r="X77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
@@ -15625,7 +16805,7 @@
         <v>377</v>
       </c>
       <c r="X78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
@@ -15633,7 +16813,7 @@
         <v>315</v>
       </c>
       <c r="X79" t="s">
-        <v>555</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80">
@@ -15641,7 +16821,7 @@
         <v>326</v>
       </c>
       <c r="X80" t="s">
-        <v>92</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81">
@@ -15649,7 +16829,7 @@
         <v>332</v>
       </c>
       <c r="X81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
@@ -15657,7 +16837,7 @@
         <v>321</v>
       </c>
       <c r="X82" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83">
@@ -15665,7 +16845,7 @@
         <v>316</v>
       </c>
       <c r="X83" t="s">
-        <v>543</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84">
@@ -15673,7 +16853,7 @@
         <v>333</v>
       </c>
       <c r="X84" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85">
@@ -15681,7 +16861,7 @@
         <v>317</v>
       </c>
       <c r="X85" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86">
@@ -15689,7 +16869,7 @@
         <v>318</v>
       </c>
       <c r="X86" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87">
@@ -15697,7 +16877,7 @@
         <v>351</v>
       </c>
       <c r="X87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88">
@@ -15705,7 +16885,7 @@
         <v>357</v>
       </c>
       <c r="X88" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89">
@@ -15713,7 +16893,7 @@
         <v>340</v>
       </c>
       <c r="X89" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90">
@@ -15721,7 +16901,7 @@
         <v>385</v>
       </c>
       <c r="X90" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -15729,7 +16909,7 @@
         <v>322</v>
       </c>
       <c r="X91" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92">
@@ -15737,161 +16917,166 @@
         <v>323</v>
       </c>
       <c r="X92" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11423" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12446" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1751,6 +1751,9 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="363" x14ac:knownFonts="1">
+  <fonts count="395" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4057,8 +4060,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="599">
+  <fills count="653">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7449,8 +7654,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="625">
+  <borders count="681">
     <border>
       <left/>
       <right/>
@@ -7549,6 +8060,570 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -13774,7 +14849,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="416">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14905,52 +15980,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="574" borderId="604" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="604" fillId="574" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="577" borderId="608" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="608" fillId="577" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="580" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="580" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="583" borderId="612" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="612" fillId="583" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="586" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="586" fontId="353" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="355" fillId="589" borderId="616" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="356" fillId="592" borderId="620" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="357" fillId="595" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="358" fillId="595" borderId="624" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="359" fillId="583" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="360" fillId="598" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="361" fillId="583" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="616" fillId="589" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="620" fillId="592" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="595" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="624" fillId="595" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="583" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="598" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="583" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="632" fillId="601" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="636" fillId="604" fontId="365" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="607" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="640" fillId="610" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="613" fontId="369" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="644" fillId="616" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="648" fillId="619" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="622" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="652" fillId="622" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="610" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="625" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="610" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="628" borderId="660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="631" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="634" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="637" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="640" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="643" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="646" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="649" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="649" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="652" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15288,7 +16459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16957,126 +18128,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>95</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12446" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12962" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1754,6 +1754,18 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1773,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="395" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4262,8 +4274,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="653">
+  <fills count="680">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7960,8 +8073,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="681">
+  <borders count="709">
     <border>
       <left/>
       <right/>
@@ -8060,6 +8326,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14849,7 +15397,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="416">
+  <cellXfs count="432">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16076,52 +16624,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="628" borderId="660" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="660" fillId="628" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="631" borderId="664" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="664" fillId="631" fontId="381" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="634" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="634" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="637" borderId="668" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="668" fillId="637" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="640" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="640" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="387" fillId="643" borderId="672" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="388" fillId="646" borderId="676" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="389" fillId="649" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="390" fillId="649" borderId="680" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="391" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="392" fillId="652" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="393" fillId="637" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="672" fillId="643" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="676" fillId="646" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="649" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="680" fillId="649" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="637" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="652" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="637" fontId="393" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="655" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="658" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="661" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="664" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="670" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="673" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="676" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="676" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="664" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="679" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="664" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16889,6 +17485,9 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
+      <c r="F6" t="s">
+        <v>563</v>
+      </c>
       <c r="G6" t="s">
         <v>440</v>
       </c>
@@ -17011,7 +17610,7 @@
         <v>373</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>564</v>
       </c>
       <c r="M8" t="s">
         <v>231</v>
@@ -17064,7 +17663,7 @@
         <v>374</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M9" t="s">
         <v>232</v>
@@ -17105,7 +17704,7 @@
         <v>506</v>
       </c>
       <c r="K10" t="s">
-        <v>442</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s">
         <v>233</v>
@@ -17143,7 +17742,7 @@
         <v>367</v>
       </c>
       <c r="K11" t="s">
-        <v>151</v>
+        <v>565</v>
       </c>
       <c r="M11" t="s">
         <v>532</v>
@@ -17178,7 +17777,7 @@
         <v>368</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="M12" t="s">
         <v>495</v>
@@ -17213,7 +17812,7 @@
         <v>369</v>
       </c>
       <c r="K13" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s">
         <v>531</v>
@@ -17248,7 +17847,7 @@
         <v>370</v>
       </c>
       <c r="K14" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s">
         <v>234</v>
@@ -17280,7 +17879,7 @@
         <v>310</v>
       </c>
       <c r="K15" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="M15" t="s">
         <v>235</v>
@@ -17312,7 +17911,7 @@
         <v>363</v>
       </c>
       <c r="K16" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s">
         <v>236</v>
@@ -17344,7 +17943,7 @@
         <v>212</v>
       </c>
       <c r="K17" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
         <v>561</v>
@@ -17367,7 +17966,7 @@
         <v>213</v>
       </c>
       <c r="K18" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="X18" t="s">
         <v>50</v>
@@ -17387,7 +17986,7 @@
         <v>341</v>
       </c>
       <c r="K19" t="s">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="X19" t="s">
         <v>51</v>
@@ -17407,7 +18006,7 @@
         <v>342</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
         <v>52</v>
@@ -17427,7 +18026,7 @@
         <v>343</v>
       </c>
       <c r="K21" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="X21" t="s">
         <v>53</v>
@@ -17447,7 +18046,7 @@
         <v>344</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>530</v>
       </c>
       <c r="X22" t="s">
         <v>544</v>
@@ -17464,7 +18063,7 @@
         <v>335</v>
       </c>
       <c r="K23" t="s">
-        <v>494</v>
+        <v>153</v>
       </c>
       <c r="X23" t="s">
         <v>55</v>
@@ -17481,7 +18080,7 @@
         <v>324</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>444</v>
       </c>
       <c r="X24" t="s">
         <v>56</v>
@@ -17498,7 +18097,7 @@
         <v>159</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X25" t="s">
         <v>57</v>
@@ -17514,6 +18113,9 @@
       <c r="G26" t="s">
         <v>327</v>
       </c>
+      <c r="K26" t="s">
+        <v>494</v>
+      </c>
       <c r="X26" t="s">
         <v>58</v>
       </c>
@@ -17528,6 +18130,9 @@
       <c r="G27" t="s">
         <v>311</v>
       </c>
+      <c r="K27" t="s">
+        <v>155</v>
+      </c>
       <c r="X27" t="s">
         <v>59</v>
       </c>
@@ -17541,6 +18146,9 @@
       </c>
       <c r="G28" t="s">
         <v>328</v>
+      </c>
+      <c r="K28" t="s">
+        <v>156</v>
       </c>
       <c r="X28" t="s">
         <v>372</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -22,7 +22,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12962" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13480" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1766,6 +1766,12 @@
   </si>
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="427" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4375,8 +4381,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="680">
+  <fills count="707">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8226,8 +8333,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="709">
+  <borders count="737">
     <border>
       <left/>
       <right/>
@@ -8326,6 +8586,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15397,7 +15939,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="432">
+  <cellXfs count="448">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16672,52 +17214,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="655" borderId="688" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="688" fillId="655" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="658" borderId="692" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="692" fillId="658" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="661" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="661" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="664" borderId="696" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="696" fillId="664" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="667" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="667" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="403" fillId="670" borderId="700" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="673" borderId="704" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="676" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="406" fillId="676" borderId="708" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="407" fillId="664" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="408" fillId="679" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="409" fillId="664" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="700" fillId="670" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="704" fillId="673" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="676" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="708" fillId="676" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="664" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="679" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="664" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="682" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="685" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="688" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="691" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="697" borderId="728" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="700" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="703" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="703" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="691" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="706" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="691" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18206,7 +18796,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>567</v>
       </c>
       <c r="X33" t="s">
         <v>64</v>
@@ -18217,7 +18807,7 @@
         <v>163</v>
       </c>
       <c r="G34" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="X34" t="s">
         <v>65</v>
@@ -18228,7 +18818,7 @@
         <v>164</v>
       </c>
       <c r="G35" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="X35" t="s">
         <v>251</v>
@@ -18239,7 +18829,7 @@
         <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="X36" t="s">
         <v>66</v>
@@ -18250,7 +18840,7 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="X37" t="s">
         <v>383</v>
@@ -18261,7 +18851,7 @@
         <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="X38" t="s">
         <v>489</v>
@@ -18269,7 +18859,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="X39" t="s">
         <v>445</v>
@@ -18277,7 +18867,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="X40" t="s">
         <v>67</v>
@@ -18285,7 +18875,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="X41" t="s">
         <v>68</v>
@@ -18293,7 +18883,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="X42" t="s">
         <v>69</v>
@@ -18301,7 +18891,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X43" t="s">
         <v>70</v>
@@ -18309,7 +18899,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="X44" t="s">
         <v>71</v>
@@ -18317,7 +18907,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="X45" t="s">
         <v>72</v>
@@ -18325,7 +18915,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>252</v>
+        <v>387</v>
       </c>
       <c r="X46" t="s">
         <v>496</v>
@@ -18333,7 +18923,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="X47" t="s">
         <v>254</v>
@@ -18341,7 +18931,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="X48" t="s">
         <v>73</v>
@@ -18349,7 +18939,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="X49" t="s">
         <v>74</v>
@@ -18357,7 +18947,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="X50" t="s">
         <v>75</v>
@@ -18365,7 +18955,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="X51" t="s">
         <v>76</v>
@@ -18373,7 +18963,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="X52" t="s">
         <v>542</v>
@@ -18381,7 +18971,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>313</v>
+        <v>376</v>
       </c>
       <c r="X53" t="s">
         <v>523</v>
@@ -18389,7 +18979,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="X54" t="s">
         <v>77</v>
@@ -18397,7 +18987,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="X55" t="s">
         <v>391</v>
@@ -18405,7 +18995,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X56" t="s">
         <v>513</v>
@@ -18413,7 +19003,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="X57" t="s">
         <v>78</v>
@@ -18421,7 +19011,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="X58" t="s">
         <v>79</v>
@@ -18429,7 +19019,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="X59" t="s">
         <v>80</v>
@@ -18437,7 +19027,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="X60" t="s">
         <v>81</v>
@@ -18445,7 +19035,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X61" t="s">
         <v>82</v>
@@ -18453,7 +19043,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="X62" t="s">
         <v>83</v>
@@ -18461,7 +19051,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X63" t="s">
         <v>84</v>
@@ -18469,7 +19059,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="X64" t="s">
         <v>492</v>
@@ -18477,7 +19067,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="X65" t="s">
         <v>533</v>
@@ -18485,7 +19075,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="X66" t="s">
         <v>255</v>
@@ -18493,7 +19083,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="X67" t="s">
         <v>441</v>
@@ -18501,7 +19091,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="X68" t="s">
         <v>497</v>
@@ -18509,7 +19099,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>463</v>
+        <v>360</v>
       </c>
       <c r="X69" t="s">
         <v>85</v>
@@ -18517,7 +19107,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="X70" t="s">
         <v>86</v>
@@ -18525,7 +19115,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="X71" t="s">
         <v>87</v>
@@ -18533,7 +19123,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
       <c r="X72" t="s">
         <v>88</v>
@@ -18541,7 +19131,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="X73" t="s">
         <v>238</v>
@@ -18549,7 +19139,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>325</v>
+        <v>568</v>
       </c>
       <c r="X74" t="s">
         <v>239</v>
@@ -18557,7 +19147,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="X75" t="s">
         <v>508</v>
@@ -18565,7 +19155,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="X76" t="s">
         <v>527</v>
@@ -18573,7 +19163,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="X77" t="s">
         <v>89</v>
@@ -18581,7 +19171,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="X78" t="s">
         <v>90</v>
@@ -18589,7 +19179,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>315</v>
+        <v>482</v>
       </c>
       <c r="X79" t="s">
         <v>91</v>
@@ -18597,7 +19187,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="X80" t="s">
         <v>555</v>
@@ -18605,7 +19195,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="X81" t="s">
         <v>92</v>
@@ -18613,7 +19203,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="X82" t="s">
         <v>93</v>
@@ -18621,7 +19211,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="X83" t="s">
         <v>240</v>
@@ -18629,7 +19219,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="X84" t="s">
         <v>543</v>
@@ -18637,7 +19227,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X85" t="s">
         <v>241</v>
@@ -18645,7 +19235,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="X86" t="s">
         <v>507</v>
@@ -18653,7 +19243,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="X87" t="s">
         <v>242</v>
@@ -18661,7 +19251,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="X88" t="s">
         <v>243</v>
@@ -18669,7 +19259,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="X89" t="s">
         <v>256</v>
@@ -18677,7 +19267,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="X90" t="s">
         <v>94</v>
@@ -18685,7 +19275,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="X91" t="s">
         <v>244</v>
@@ -18693,18 +19283,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="X92" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>322</v>
+      </c>
       <c r="X93" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>323</v>
+      </c>
       <c r="X94" t="s">
         <v>245</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13480" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15040" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1772,6 +1772,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1785,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="427" x14ac:knownFonts="1">
+  <fonts count="475" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4482,8 +4488,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="707">
+  <fills count="797">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8486,8 +8795,518 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="737">
+  <borders count="821">
     <border>
       <left/>
       <right/>
@@ -8586,6 +9405,852 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15939,7 +17604,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="496">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17262,52 +18927,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="682" borderId="716" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="716" fillId="682" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="685" borderId="720" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="720" fillId="685" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="688" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="688" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="691" borderId="724" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="724" fillId="691" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="694" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="694" fontId="417" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="419" fillId="697" borderId="728" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="420" fillId="700" borderId="732" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="421" fillId="703" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="422" fillId="703" borderId="736" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="423" fillId="691" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="424" fillId="706" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="425" fillId="691" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="728" fillId="697" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="732" fillId="700" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="703" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="736" fillId="703" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="691" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="706" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="691" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="744" fillId="709" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="748" fillId="712" fontId="429" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="715" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="752" fillId="718" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="721" fontId="433" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="756" fillId="724" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="760" fillId="727" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="730" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="764" fillId="730" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="718" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="733" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="718" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="736" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="772" fillId="739" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="776" fillId="742" fontId="445" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="745" fontId="446" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="780" fillId="748" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="751" fontId="449" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="784" fillId="754" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="788" fillId="757" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="760" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="792" fillId="760" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="748" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="763" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="748" fontId="457" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="766" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="769" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="772" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="775" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="778" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="781" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="784" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="787" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="790" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="790" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="778" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="793" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="778" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="796" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17645,7 +19454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19337,126 +21146,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>95</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>96</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>97</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>498</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>110</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15040" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15568" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1778,6 +1779,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="475" x14ac:knownFonts="1">
+  <fonts count="491" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4791,8 +4813,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="797">
+  <fills count="827">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9305,8 +9428,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="821">
+  <borders count="849">
     <border>
       <left/>
       <right/>
@@ -9405,6 +9698,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -17604,7 +18179,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="512">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19071,52 +19646,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="766" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="769" borderId="800" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="800" fillId="769" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="772" borderId="804" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="804" fillId="772" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="775" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="775" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="778" borderId="808" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="808" fillId="778" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="781" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="781" fontId="465" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="467" fillId="784" borderId="812" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="468" fillId="787" borderId="816" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="469" fillId="790" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="470" fillId="790" borderId="820" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="471" fillId="778" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="472" fillId="793" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="473" fillId="778" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="474" fillId="796" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="812" fillId="784" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="816" fillId="787" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="790" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="820" fillId="790" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="778" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="793" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="778" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="796" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="799" borderId="828" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="802" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="805" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="808" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="811" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="814" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="817" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="820" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="820" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="808" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="823" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="808" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="826" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19454,7 +20077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19506,51 +20129,54 @@
         <v>226</v>
       </c>
       <c r="N1" t="s">
+        <v>571</v>
+      </c>
+      <c r="O1" t="s">
         <v>536</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>284</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>216</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>453</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>474</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>467</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>409</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>449</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>476</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -19595,51 +20221,54 @@
         <v>483</v>
       </c>
       <c r="N2" t="s">
+        <v>572</v>
+      </c>
+      <c r="O2" t="s">
         <v>539</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>466</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>484</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>298</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>258</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>454</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>475</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>473</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>433</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>450</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>486</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>550</v>
       </c>
     </row>
@@ -19684,45 +20313,48 @@
         <v>227</v>
       </c>
       <c r="N3" t="s">
+        <v>573</v>
+      </c>
+      <c r="O3" t="s">
         <v>540</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>285</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>259</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>455</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>469</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>434</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>451</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>123</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>416</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>135</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>273</v>
       </c>
     </row>
@@ -19764,45 +20396,48 @@
         <v>228</v>
       </c>
       <c r="N4" t="s">
+        <v>574</v>
+      </c>
+      <c r="O4" t="s">
         <v>541</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>286</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>260</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>456</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>470</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>452</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>399</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>119</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>124</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>135</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>477</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -19837,40 +20472,43 @@
       <c r="M5" t="s">
         <v>229</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>287</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>261</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>457</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>471</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>411</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>400</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>120</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>125</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>136</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>478</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>275</v>
       </c>
     </row>
@@ -19902,37 +20540,40 @@
       <c r="M6" t="s">
         <v>230</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>288</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>443</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>458</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>413</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>499</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>126</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>137</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>479</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -19958,37 +20599,40 @@
       <c r="M7" t="s">
         <v>361</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q7" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>289</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>468</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>459</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>412</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>44</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>500</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>130</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>138</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>480</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>277</v>
       </c>
     </row>
@@ -20014,34 +20658,34 @@
       <c r="M8" t="s">
         <v>231</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>290</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>460</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>414</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>121</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>127</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>139</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>481</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>278</v>
       </c>
     </row>
@@ -20067,25 +20711,25 @@
       <c r="M9" t="s">
         <v>232</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>167</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>291</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>461</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>415</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>250</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>214</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -20108,22 +20752,22 @@
       <c r="M10" t="s">
         <v>233</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>487</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>292</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>462</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>302</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>215</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>534</v>
       </c>
     </row>
@@ -20146,19 +20790,19 @@
       <c r="M11" t="s">
         <v>532</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>293</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>303</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>304</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>551</v>
       </c>
     </row>
@@ -20181,19 +20825,19 @@
       <c r="M12" t="s">
         <v>495</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>294</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>46</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>140</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>552</v>
       </c>
     </row>
@@ -20216,25 +20860,25 @@
       <c r="M13" t="s">
         <v>531</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>169</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>299</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>371</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>141</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -20251,25 +20895,25 @@
       <c r="M14" t="s">
         <v>234</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>295</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>47</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>142</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>536</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
@@ -20283,25 +20927,25 @@
       <c r="M15" t="s">
         <v>235</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>559</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>296</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>48</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>143</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
         <v>437</v>
@@ -20315,25 +20959,25 @@
       <c r="M16" t="s">
         <v>236</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>560</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>297</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>49</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>144</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>438</v>
@@ -20344,19 +20988,19 @@
       <c r="K17" t="s">
         <v>192</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>561</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>515</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
         <v>465</v>
@@ -20367,16 +21011,16 @@
       <c r="K18" t="s">
         <v>510</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>50</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -20387,16 +21031,16 @@
       <c r="K19" t="s">
         <v>200</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>51</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -20407,16 +21051,16 @@
       <c r="K20" t="s">
         <v>201</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>52</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E21" t="s">
         <v>301</v>
@@ -20427,16 +21071,16 @@
       <c r="K21" t="s">
         <v>432</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>53</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -20447,13 +21091,13 @@
       <c r="K22" t="s">
         <v>530</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
         <v>366</v>
@@ -20464,13 +21108,13 @@
       <c r="K23" t="s">
         <v>153</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>449</v>
       </c>
       <c r="E24" t="s">
         <v>129</v>
@@ -20481,13 +21125,13 @@
       <c r="K24" t="s">
         <v>444</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
         <v>502</v>
@@ -20498,13 +21142,13 @@
       <c r="K25" t="s">
         <v>154</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>270</v>
@@ -20515,13 +21159,13 @@
       <c r="K26" t="s">
         <v>494</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -20532,13 +21176,13 @@
       <c r="K27" t="s">
         <v>155</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>476</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>528</v>
@@ -20549,13 +21193,13 @@
       <c r="K28" t="s">
         <v>156</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="E29" t="s">
         <v>529</v>
@@ -20563,18 +21207,21 @@
       <c r="G29" t="s">
         <v>329</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>272</v>
+      </c>
       <c r="E30" t="s">
         <v>472</v>
       </c>
       <c r="G30" t="s">
         <v>257</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -20585,7 +21232,7 @@
       <c r="G31" t="s">
         <v>320</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -20596,7 +21243,7 @@
       <c r="G32" t="s">
         <v>330</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -20607,7 +21254,7 @@
       <c r="G33" t="s">
         <v>567</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>64</v>
       </c>
     </row>
@@ -20618,7 +21265,7 @@
       <c r="G34" t="s">
         <v>305</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -20629,7 +21276,7 @@
       <c r="G35" t="s">
         <v>375</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>251</v>
       </c>
     </row>
@@ -20640,7 +21287,7 @@
       <c r="G36" t="s">
         <v>353</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>66</v>
       </c>
     </row>
@@ -20651,7 +21298,7 @@
       <c r="G37" t="s">
         <v>306</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>383</v>
       </c>
     </row>
@@ -20662,7 +21309,7 @@
       <c r="G38" t="s">
         <v>354</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>489</v>
       </c>
     </row>
@@ -20670,7 +21317,7 @@
       <c r="G39" t="s">
         <v>312</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>445</v>
       </c>
     </row>
@@ -20678,7 +21325,7 @@
       <c r="G40" t="s">
         <v>161</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>67</v>
       </c>
     </row>
@@ -20686,7 +21333,7 @@
       <c r="G41" t="s">
         <v>253</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20694,7 +21341,7 @@
       <c r="G42" t="s">
         <v>334</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>69</v>
       </c>
     </row>
@@ -20702,7 +21349,7 @@
       <c r="G43" t="s">
         <v>345</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>70</v>
       </c>
     </row>
@@ -20710,7 +21357,7 @@
       <c r="G44" t="s">
         <v>346</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20718,7 +21365,7 @@
       <c r="G45" t="s">
         <v>388</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>72</v>
       </c>
     </row>
@@ -20726,7 +21373,7 @@
       <c r="G46" t="s">
         <v>387</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>496</v>
       </c>
     </row>
@@ -20734,7 +21381,7 @@
       <c r="G47" t="s">
         <v>252</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>254</v>
       </c>
     </row>
@@ -20742,7 +21389,7 @@
       <c r="G48" t="s">
         <v>347</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>73</v>
       </c>
     </row>
@@ -20750,7 +21397,7 @@
       <c r="G49" t="s">
         <v>384</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>74</v>
       </c>
     </row>
@@ -20758,7 +21405,7 @@
       <c r="G50" t="s">
         <v>420</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>75</v>
       </c>
     </row>
@@ -20766,7 +21413,7 @@
       <c r="G51" t="s">
         <v>348</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>76</v>
       </c>
     </row>
@@ -20774,7 +21421,7 @@
       <c r="G52" t="s">
         <v>408</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>542</v>
       </c>
     </row>
@@ -20782,7 +21429,7 @@
       <c r="G53" t="s">
         <v>376</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>523</v>
       </c>
     </row>
@@ -20790,7 +21437,7 @@
       <c r="G54" t="s">
         <v>313</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>77</v>
       </c>
     </row>
@@ -20798,7 +21445,7 @@
       <c r="G55" t="s">
         <v>337</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>391</v>
       </c>
     </row>
@@ -20806,7 +21453,7 @@
       <c r="G56" t="s">
         <v>338</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>513</v>
       </c>
     </row>
@@ -20814,7 +21461,7 @@
       <c r="G57" t="s">
         <v>339</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>78</v>
       </c>
     </row>
@@ -20822,7 +21469,7 @@
       <c r="G58" t="s">
         <v>349</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>79</v>
       </c>
     </row>
@@ -20830,7 +21477,7 @@
       <c r="G59" t="s">
         <v>358</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>80</v>
       </c>
     </row>
@@ -20838,7 +21485,7 @@
       <c r="G60" t="s">
         <v>382</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>81</v>
       </c>
     </row>
@@ -20846,7 +21493,7 @@
       <c r="G61" t="s">
         <v>355</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>82</v>
       </c>
     </row>
@@ -20854,7 +21501,7 @@
       <c r="G62" t="s">
         <v>356</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>83</v>
       </c>
     </row>
@@ -20862,7 +21509,7 @@
       <c r="G63" t="s">
         <v>421</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>84</v>
       </c>
     </row>
@@ -20870,7 +21517,7 @@
       <c r="G64" t="s">
         <v>422</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>492</v>
       </c>
     </row>
@@ -20878,7 +21525,7 @@
       <c r="G65" t="s">
         <v>390</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>533</v>
       </c>
     </row>
@@ -20886,7 +21533,7 @@
       <c r="G66" t="s">
         <v>359</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>255</v>
       </c>
     </row>
@@ -20894,7 +21541,7 @@
       <c r="G67" t="s">
         <v>314</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>441</v>
       </c>
     </row>
@@ -20902,7 +21549,7 @@
       <c r="G68" t="s">
         <v>398</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>497</v>
       </c>
     </row>
@@ -20910,7 +21557,7 @@
       <c r="G69" t="s">
         <v>360</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>85</v>
       </c>
     </row>
@@ -20918,7 +21565,7 @@
       <c r="G70" t="s">
         <v>463</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -20926,7 +21573,7 @@
       <c r="G71" t="s">
         <v>350</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>87</v>
       </c>
     </row>
@@ -20934,7 +21581,7 @@
       <c r="G72" t="s">
         <v>464</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>88</v>
       </c>
     </row>
@@ -20942,7 +21589,7 @@
       <c r="G73" t="s">
         <v>307</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>238</v>
       </c>
     </row>
@@ -20950,7 +21597,7 @@
       <c r="G74" t="s">
         <v>568</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>239</v>
       </c>
     </row>
@@ -20958,7 +21605,7 @@
       <c r="G75" t="s">
         <v>389</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>508</v>
       </c>
     </row>
@@ -20966,7 +21613,7 @@
       <c r="G76" t="s">
         <v>325</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>527</v>
       </c>
     </row>
@@ -20974,7 +21621,7 @@
       <c r="G77" t="s">
         <v>331</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>89</v>
       </c>
     </row>
@@ -20982,7 +21629,7 @@
       <c r="G78" t="s">
         <v>336</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>90</v>
       </c>
     </row>
@@ -20990,7 +21637,7 @@
       <c r="G79" t="s">
         <v>482</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20998,7 +21645,7 @@
       <c r="G80" t="s">
         <v>377</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>555</v>
       </c>
     </row>
@@ -21006,7 +21653,7 @@
       <c r="G81" t="s">
         <v>315</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>92</v>
       </c>
     </row>
@@ -21014,7 +21661,7 @@
       <c r="G82" t="s">
         <v>326</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>93</v>
       </c>
     </row>
@@ -21022,7 +21669,7 @@
       <c r="G83" t="s">
         <v>332</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>240</v>
       </c>
     </row>
@@ -21030,7 +21677,7 @@
       <c r="G84" t="s">
         <v>321</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>543</v>
       </c>
     </row>
@@ -21038,7 +21685,7 @@
       <c r="G85" t="s">
         <v>316</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>241</v>
       </c>
     </row>
@@ -21046,7 +21693,7 @@
       <c r="G86" t="s">
         <v>333</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>507</v>
       </c>
     </row>
@@ -21054,7 +21701,7 @@
       <c r="G87" t="s">
         <v>317</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>242</v>
       </c>
     </row>
@@ -21062,7 +21709,7 @@
       <c r="G88" t="s">
         <v>318</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>243</v>
       </c>
     </row>
@@ -21070,7 +21717,7 @@
       <c r="G89" t="s">
         <v>351</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>256</v>
       </c>
     </row>
@@ -21078,7 +21725,7 @@
       <c r="G90" t="s">
         <v>357</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>94</v>
       </c>
     </row>
@@ -21086,7 +21733,7 @@
       <c r="G91" t="s">
         <v>340</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>244</v>
       </c>
     </row>
@@ -21094,7 +21741,7 @@
       <c r="G92" t="s">
         <v>385</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>490</v>
       </c>
     </row>
@@ -21102,7 +21749,7 @@
       <c r="G93" t="s">
         <v>322</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>491</v>
       </c>
     </row>
@@ -21110,172 +21757,172 @@
       <c r="G94" t="s">
         <v>323</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15568" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17694" uniqueCount="582">
   <si>
     <t>description</t>
   </si>
@@ -1800,6 +1800,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1819,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="491" x14ac:knownFonts="1">
+  <fonts count="555" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4914,8 +4926,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="827">
+  <fills count="947">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9598,8 +10014,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="849">
+  <borders count="961">
     <border>
       <left/>
       <right/>
@@ -9698,6 +10794,1134 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18179,7 +20403,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="576">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19694,52 +21918,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="796" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="799" borderId="828" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="828" fillId="799" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="802" borderId="832" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="832" fillId="802" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="805" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="805" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="808" borderId="836" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="836" fillId="808" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="811" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="811" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="483" fillId="814" borderId="840" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="484" fillId="817" borderId="844" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="485" fillId="820" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="486" fillId="820" borderId="848" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="487" fillId="808" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="488" fillId="823" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="489" fillId="808" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="490" fillId="826" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="840" fillId="814" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="844" fillId="817" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="820" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="848" fillId="820" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="808" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="823" fontId="488" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="808" fontId="489" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="826" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="856" fillId="829" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="860" fillId="832" fontId="493" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="835" fontId="494" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="864" fillId="838" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="841" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="868" fillId="844" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="872" fillId="847" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="850" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="876" fillId="850" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="838" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="853" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="838" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="856" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="884" fillId="859" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="888" fillId="862" fontId="509" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="865" fontId="510" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="892" fillId="868" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="871" fontId="513" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="896" fillId="874" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="900" fillId="877" fontId="516" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="880" fontId="517" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="904" fillId="880" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="868" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="883" fontId="520" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="868" fontId="521" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="886" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="912" fillId="889" fontId="523" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="524" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="916" fillId="892" fontId="525" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="895" fontId="526" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="920" fillId="898" fontId="527" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="901" fontId="529" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="924" fillId="904" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="928" fillId="907" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="910" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="932" fillId="910" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="898" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="913" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="898" fontId="537" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="916" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="919" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="922" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="925" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="928" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="931" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="934" borderId="952" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="937" borderId="956" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="940" borderId="960" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="940" borderId="960" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="928" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="943" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="928" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="946" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20473,7 +22889,7 @@
         <v>229</v>
       </c>
       <c r="N5" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -20541,7 +22957,7 @@
         <v>230</v>
       </c>
       <c r="N6" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -20600,7 +23016,7 @@
         <v>361</v>
       </c>
       <c r="N7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -20658,6 +23074,9 @@
       <c r="M8" t="s">
         <v>231</v>
       </c>
+      <c r="N8" t="s">
+        <v>575</v>
+      </c>
       <c r="Q8" t="s">
         <v>166</v>
       </c>
@@ -20711,6 +23130,9 @@
       <c r="M9" t="s">
         <v>232</v>
       </c>
+      <c r="N9" t="s">
+        <v>576</v>
+      </c>
       <c r="Q9" t="s">
         <v>167</v>
       </c>
@@ -20752,6 +23174,9 @@
       <c r="M10" t="s">
         <v>233</v>
       </c>
+      <c r="N10" t="s">
+        <v>577</v>
+      </c>
       <c r="Q10" t="s">
         <v>487</v>
       </c>
@@ -21140,7 +23565,7 @@
         <v>159</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>581</v>
       </c>
       <c r="Y25" t="s">
         <v>57</v>
@@ -21157,7 +23582,7 @@
         <v>327</v>
       </c>
       <c r="K26" t="s">
-        <v>494</v>
+        <v>154</v>
       </c>
       <c r="Y26" t="s">
         <v>58</v>
@@ -21174,7 +23599,7 @@
         <v>311</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>494</v>
       </c>
       <c r="Y27" t="s">
         <v>59</v>
@@ -21191,7 +23616,7 @@
         <v>328</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y28" t="s">
         <v>372</v>
@@ -21206,6 +23631,9 @@
       </c>
       <c r="G29" t="s">
         <v>329</v>
+      </c>
+      <c r="K29" t="s">
+        <v>156</v>
       </c>
       <c r="Y29" t="s">
         <v>60</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17694" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18229" uniqueCount="586">
   <si>
     <t>description</t>
   </si>
@@ -1812,6 +1812,18 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1831,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="555" x14ac:knownFonts="1">
+  <fonts count="571" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5330,8 +5342,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="947">
+  <fills count="977">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10694,8 +10807,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="961">
+  <borders count="989">
     <border>
       <left/>
       <right/>
@@ -10794,6 +11077,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20403,7 +20968,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="576">
+  <cellXfs count="592">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22110,52 +22675,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="916" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="919" borderId="940" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="940" fillId="919" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="922" borderId="944" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="944" fillId="922" fontId="541" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="925" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="925" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="928" borderId="948" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="948" fillId="928" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="931" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="931" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="547" fillId="934" borderId="952" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="548" fillId="937" borderId="956" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="549" fillId="940" borderId="960" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="550" fillId="940" borderId="960" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="551" fillId="928" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="552" fillId="943" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="553" fillId="928" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="554" fillId="946" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="952" fillId="934" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="956" fillId="937" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="960" fillId="940" fontId="549" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="960" fillId="940" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="928" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="943" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="928" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="946" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="949" borderId="968" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="952" borderId="972" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="955" borderId="976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="958" borderId="976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="961" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="964" borderId="980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="967" borderId="984" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="970" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="970" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="958" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="973" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="958" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="976" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22699,7 +23312,7 @@
         <v>521</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="E3" t="s">
         <v>511</v>
@@ -22782,7 +23395,7 @@
         <v>426</v>
       </c>
       <c r="D4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -22865,7 +23478,7 @@
         <v>427</v>
       </c>
       <c r="D5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E5" t="s">
         <v>512</v>
@@ -22889,7 +23502,7 @@
         <v>229</v>
       </c>
       <c r="N5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
@@ -22935,6 +23548,9 @@
       <c r="B6" t="s">
         <v>428</v>
       </c>
+      <c r="D6" t="s">
+        <v>549</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -22957,7 +23573,7 @@
         <v>230</v>
       </c>
       <c r="N6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Q6" t="s">
         <v>22</v>
@@ -23016,7 +23632,7 @@
         <v>361</v>
       </c>
       <c r="N7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Q7" t="s">
         <v>24</v>
@@ -23075,7 +23691,7 @@
         <v>231</v>
       </c>
       <c r="N8" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="Q8" t="s">
         <v>166</v>
@@ -23131,7 +23747,7 @@
         <v>232</v>
       </c>
       <c r="N9" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="Q9" t="s">
         <v>167</v>
@@ -23175,7 +23791,7 @@
         <v>233</v>
       </c>
       <c r="N10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Q10" t="s">
         <v>487</v>
@@ -23215,6 +23831,9 @@
       <c r="M11" t="s">
         <v>532</v>
       </c>
+      <c r="N11" t="s">
+        <v>576</v>
+      </c>
       <c r="Q11" t="s">
         <v>168</v>
       </c>
@@ -23250,6 +23869,9 @@
       <c r="M12" t="s">
         <v>495</v>
       </c>
+      <c r="N12" t="s">
+        <v>577</v>
+      </c>
       <c r="Q12" t="s">
         <v>26</v>
       </c>
@@ -23565,7 +24187,7 @@
         <v>159</v>
       </c>
       <c r="K25" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Y25" t="s">
         <v>57</v>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18229" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18766" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1824,6 +1824,12 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="571" x14ac:knownFonts="1">
+  <fonts count="587" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5443,8 +5449,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="977">
+  <fills count="1007">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10977,8 +11084,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="989">
+  <borders count="1017">
     <border>
       <left/>
       <right/>
@@ -11077,6 +11354,288 @@
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20968,7 +21527,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="592">
+  <cellXfs count="608">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22723,52 +23282,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="946" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="949" borderId="968" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="968" fillId="949" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="952" borderId="972" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="972" fillId="952" fontId="557" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="955" borderId="976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="976" fillId="955" fontId="558" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="958" borderId="976" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="976" fillId="958" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="560" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="961" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="961" fontId="561" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="964" borderId="980" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="564" fillId="967" borderId="984" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="565" fillId="970" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="566" fillId="970" borderId="988" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="567" fillId="958" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="568" fillId="973" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="569" fillId="958" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="570" fillId="976" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="980" fillId="964" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="984" fillId="967" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="988" fillId="970" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="988" fillId="970" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="958" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="973" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="958" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="976" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="979" borderId="996" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="982" borderId="1000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="985" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="988" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="991" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="994" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="997" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="1000" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1000" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="988" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1003" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="988" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1006" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23106,7 +23713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23492,6 +24099,9 @@
       <c r="H5" t="s">
         <v>509</v>
       </c>
+      <c r="I5" t="s">
+        <v>586</v>
+      </c>
       <c r="J5" t="s">
         <v>396</v>
       </c>
@@ -24368,7 +24978,7 @@
         <v>312</v>
       </c>
       <c r="Y39" t="s">
-        <v>445</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40">
@@ -24376,7 +24986,7 @@
         <v>161</v>
       </c>
       <c r="Y40" t="s">
-        <v>67</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41">
@@ -24384,7 +24994,7 @@
         <v>253</v>
       </c>
       <c r="Y41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -24392,7 +25002,7 @@
         <v>334</v>
       </c>
       <c r="Y42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -24400,7 +25010,7 @@
         <v>345</v>
       </c>
       <c r="Y43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -24408,7 +25018,7 @@
         <v>346</v>
       </c>
       <c r="Y44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -24416,7 +25026,7 @@
         <v>388</v>
       </c>
       <c r="Y45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -24424,7 +25034,7 @@
         <v>387</v>
       </c>
       <c r="Y46" t="s">
-        <v>496</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -24432,7 +25042,7 @@
         <v>252</v>
       </c>
       <c r="Y47" t="s">
-        <v>254</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48">
@@ -24440,7 +25050,7 @@
         <v>347</v>
       </c>
       <c r="Y48" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49">
@@ -24448,7 +25058,7 @@
         <v>384</v>
       </c>
       <c r="Y49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -24456,7 +25066,7 @@
         <v>420</v>
       </c>
       <c r="Y50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
@@ -24464,7 +25074,7 @@
         <v>348</v>
       </c>
       <c r="Y51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -24472,7 +25082,7 @@
         <v>408</v>
       </c>
       <c r="Y52" t="s">
-        <v>542</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -24480,7 +25090,7 @@
         <v>376</v>
       </c>
       <c r="Y53" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54">
@@ -24488,7 +25098,7 @@
         <v>313</v>
       </c>
       <c r="Y54" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55">
@@ -24496,7 +25106,7 @@
         <v>337</v>
       </c>
       <c r="Y55" t="s">
-        <v>391</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -24504,7 +25114,7 @@
         <v>338</v>
       </c>
       <c r="Y56" t="s">
-        <v>513</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57">
@@ -24512,7 +25122,7 @@
         <v>339</v>
       </c>
       <c r="Y57" t="s">
-        <v>78</v>
+        <v>513</v>
       </c>
     </row>
     <row r="58">
@@ -24520,7 +25130,7 @@
         <v>349</v>
       </c>
       <c r="Y58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -24528,7 +25138,7 @@
         <v>358</v>
       </c>
       <c r="Y59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -24536,7 +25146,7 @@
         <v>382</v>
       </c>
       <c r="Y60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -24544,7 +25154,7 @@
         <v>355</v>
       </c>
       <c r="Y61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -24552,7 +25162,7 @@
         <v>356</v>
       </c>
       <c r="Y62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -24560,7 +25170,7 @@
         <v>421</v>
       </c>
       <c r="Y63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64">
@@ -24568,7 +25178,7 @@
         <v>422</v>
       </c>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -24576,7 +25186,7 @@
         <v>390</v>
       </c>
       <c r="Y65" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66">
@@ -24584,7 +25194,7 @@
         <v>359</v>
       </c>
       <c r="Y66" t="s">
-        <v>255</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67">
@@ -24592,7 +25202,7 @@
         <v>314</v>
       </c>
       <c r="Y67" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68">
@@ -24600,7 +25210,7 @@
         <v>398</v>
       </c>
       <c r="Y68" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69">
@@ -24608,7 +25218,7 @@
         <v>360</v>
       </c>
       <c r="Y69" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70">
@@ -24616,7 +25226,7 @@
         <v>463</v>
       </c>
       <c r="Y70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -24624,7 +25234,7 @@
         <v>350</v>
       </c>
       <c r="Y71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -24632,7 +25242,7 @@
         <v>464</v>
       </c>
       <c r="Y72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73">
@@ -24640,7 +25250,7 @@
         <v>307</v>
       </c>
       <c r="Y73" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -24648,7 +25258,7 @@
         <v>568</v>
       </c>
       <c r="Y74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75">
@@ -24656,7 +25266,7 @@
         <v>389</v>
       </c>
       <c r="Y75" t="s">
-        <v>508</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76">
@@ -24664,7 +25274,7 @@
         <v>325</v>
       </c>
       <c r="Y76" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77">
@@ -24672,7 +25282,7 @@
         <v>331</v>
       </c>
       <c r="Y77" t="s">
-        <v>89</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78">
@@ -24680,7 +25290,7 @@
         <v>336</v>
       </c>
       <c r="Y78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
@@ -24688,7 +25298,7 @@
         <v>482</v>
       </c>
       <c r="Y79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
@@ -24696,7 +25306,7 @@
         <v>377</v>
       </c>
       <c r="Y80" t="s">
-        <v>555</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
@@ -24704,7 +25314,7 @@
         <v>315</v>
       </c>
       <c r="Y81" t="s">
-        <v>92</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82">
@@ -24712,7 +25322,7 @@
         <v>326</v>
       </c>
       <c r="Y82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83">
@@ -24720,7 +25330,7 @@
         <v>332</v>
       </c>
       <c r="Y83" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84">
@@ -24728,7 +25338,7 @@
         <v>321</v>
       </c>
       <c r="Y84" t="s">
-        <v>543</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85">
@@ -24736,7 +25346,7 @@
         <v>316</v>
       </c>
       <c r="Y85" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86">
@@ -24744,7 +25354,7 @@
         <v>333</v>
       </c>
       <c r="Y86" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87">
@@ -24752,7 +25362,7 @@
         <v>317</v>
       </c>
       <c r="Y87" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88">
@@ -24760,7 +25370,7 @@
         <v>318</v>
       </c>
       <c r="Y88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89">
@@ -24768,7 +25378,7 @@
         <v>351</v>
       </c>
       <c r="Y89" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90">
@@ -24776,7 +25386,7 @@
         <v>357</v>
       </c>
       <c r="Y90" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91">
@@ -24784,7 +25394,7 @@
         <v>340</v>
       </c>
       <c r="Y91" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -24792,7 +25402,7 @@
         <v>385</v>
       </c>
       <c r="Y92" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93">
@@ -24800,7 +25410,7 @@
         <v>322</v>
       </c>
       <c r="Y93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94">
@@ -24808,171 +25418,176 @@
         <v>323</v>
       </c>
       <c r="Y94" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>562</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>95</v>
+        <v>569</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>570</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -22,13 +22,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18766" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19313" uniqueCount="599">
   <si>
     <t>description</t>
   </si>
@@ -1830,6 +1830,39 @@
   </si>
   <si>
     <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1870,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="587" x14ac:knownFonts="1">
+  <fonts count="603" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5550,8 +5583,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1007">
+  <fills count="1034">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11254,8 +11388,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1017">
+  <borders count="1049">
     <border>
       <left/>
       <right/>
@@ -21329,6 +21616,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21527,7 +22140,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="608">
+  <cellXfs count="624">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23330,52 +23943,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="976" fontId="570" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="571" fillId="979" borderId="996" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="996" fillId="979" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="572" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="573" fillId="982" borderId="1000" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1000" fillId="982" fontId="573" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="574" fillId="985" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1004" fillId="985" fontId="574" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="575" fillId="988" borderId="1004" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1004" fillId="988" fontId="575" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="576" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="577" fillId="991" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="991" fontId="577" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="579" fillId="994" borderId="1008" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="580" fillId="997" borderId="1012" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="1000" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="582" fillId="1000" borderId="1016" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="583" fillId="988" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="584" fillId="1003" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="585" fillId="988" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="586" fillId="1006" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1008" fillId="994" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1012" fillId="997" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1016" fillId="1000" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1016" fillId="1000" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="988" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1003" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="988" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1006" fontId="586" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1009" borderId="1024" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1012" borderId="1028" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1015" borderId="1032" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1018" borderId="1036" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1021" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1024" borderId="1040" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1015" borderId="1044" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1027" borderId="1048" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1027" borderId="1048" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1018" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1030" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1018" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1033" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23713,7 +24374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24235,6 +24896,9 @@
       <c r="H7" t="s">
         <v>501</v>
       </c>
+      <c r="J7" t="s">
+        <v>590</v>
+      </c>
       <c r="K7" t="s">
         <v>149</v>
       </c>
@@ -24275,7 +24939,7 @@
         <v>480</v>
       </c>
       <c r="AD7" t="s">
-        <v>277</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8">
@@ -24331,7 +24995,7 @@
         <v>481</v>
       </c>
       <c r="AD8" t="s">
-        <v>278</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9">
@@ -24378,7 +25042,7 @@
         <v>214</v>
       </c>
       <c r="AD9" t="s">
-        <v>279</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10">
@@ -24419,7 +25083,7 @@
         <v>215</v>
       </c>
       <c r="AD10" t="s">
-        <v>534</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11">
@@ -24457,7 +25121,7 @@
         <v>304</v>
       </c>
       <c r="AD11" t="s">
-        <v>551</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -24477,7 +25141,7 @@
         <v>442</v>
       </c>
       <c r="M12" t="s">
-        <v>495</v>
+        <v>591</v>
       </c>
       <c r="N12" t="s">
         <v>577</v>
@@ -24495,7 +25159,7 @@
         <v>140</v>
       </c>
       <c r="AD12" t="s">
-        <v>552</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13">
@@ -24515,7 +25179,7 @@
         <v>151</v>
       </c>
       <c r="M13" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="Q13" t="s">
         <v>169</v>
@@ -24530,7 +25194,7 @@
         <v>141</v>
       </c>
       <c r="AD13" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
@@ -24550,7 +25214,7 @@
         <v>152</v>
       </c>
       <c r="M14" t="s">
-        <v>234</v>
+        <v>531</v>
       </c>
       <c r="Q14" t="s">
         <v>170</v>
@@ -24565,7 +25229,7 @@
         <v>142</v>
       </c>
       <c r="AD14" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15">
@@ -24582,7 +25246,7 @@
         <v>566</v>
       </c>
       <c r="M15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q15" t="s">
         <v>559</v>
@@ -24597,7 +25261,7 @@
         <v>143</v>
       </c>
       <c r="AD15" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16">
@@ -24614,7 +25278,7 @@
         <v>191</v>
       </c>
       <c r="M16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q16" t="s">
         <v>560</v>
@@ -24629,7 +25293,7 @@
         <v>144</v>
       </c>
       <c r="AD16" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17">
@@ -24645,6 +25309,9 @@
       <c r="K17" t="s">
         <v>192</v>
       </c>
+      <c r="M17" t="s">
+        <v>236</v>
+      </c>
       <c r="Y17" t="s">
         <v>561</v>
       </c>
@@ -24652,7 +25319,7 @@
         <v>515</v>
       </c>
       <c r="AD17" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18">
@@ -24672,7 +25339,7 @@
         <v>50</v>
       </c>
       <c r="AD18" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19">
@@ -24692,7 +25359,7 @@
         <v>51</v>
       </c>
       <c r="AD19" t="s">
-        <v>280</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20">
@@ -24712,7 +25379,7 @@
         <v>52</v>
       </c>
       <c r="AD20" t="s">
-        <v>281</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21">
@@ -24732,7 +25399,7 @@
         <v>53</v>
       </c>
       <c r="AD21" t="s">
-        <v>282</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22">
@@ -24751,6 +25418,9 @@
       <c r="Y22" t="s">
         <v>544</v>
       </c>
+      <c r="AD22" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -24768,6 +25438,9 @@
       <c r="Y23" t="s">
         <v>55</v>
       </c>
+      <c r="AD23" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -24785,6 +25458,9 @@
       <c r="Y24" t="s">
         <v>56</v>
       </c>
+      <c r="AD24" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -24802,6 +25478,9 @@
       <c r="Y25" t="s">
         <v>57</v>
       </c>
+      <c r="AD25" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -24819,6 +25498,9 @@
       <c r="Y26" t="s">
         <v>58</v>
       </c>
+      <c r="AD26" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -24836,6 +25518,9 @@
       <c r="Y27" t="s">
         <v>59</v>
       </c>
+      <c r="AD27" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -25066,7 +25751,7 @@
         <v>420</v>
       </c>
       <c r="Y50" t="s">
-        <v>74</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51">
@@ -25074,7 +25759,7 @@
         <v>348</v>
       </c>
       <c r="Y51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -25082,7 +25767,7 @@
         <v>408</v>
       </c>
       <c r="Y52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -25090,7 +25775,7 @@
         <v>376</v>
       </c>
       <c r="Y53" t="s">
-        <v>542</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -25098,7 +25783,7 @@
         <v>313</v>
       </c>
       <c r="Y54" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55">
@@ -25106,7 +25791,7 @@
         <v>337</v>
       </c>
       <c r="Y55" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56">
@@ -25114,7 +25799,7 @@
         <v>338</v>
       </c>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -25122,7 +25807,7 @@
         <v>339</v>
       </c>
       <c r="Y57" t="s">
-        <v>513</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58">
@@ -25130,7 +25815,7 @@
         <v>349</v>
       </c>
       <c r="Y58" t="s">
-        <v>78</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59">
@@ -25138,7 +25823,7 @@
         <v>358</v>
       </c>
       <c r="Y59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -25146,7 +25831,7 @@
         <v>382</v>
       </c>
       <c r="Y60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -25154,7 +25839,7 @@
         <v>355</v>
       </c>
       <c r="Y61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -25162,7 +25847,7 @@
         <v>356</v>
       </c>
       <c r="Y62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -25170,7 +25855,7 @@
         <v>421</v>
       </c>
       <c r="Y63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
@@ -25178,7 +25863,7 @@
         <v>422</v>
       </c>
       <c r="Y64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
@@ -25186,7 +25871,7 @@
         <v>390</v>
       </c>
       <c r="Y65" t="s">
-        <v>492</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
@@ -25194,7 +25879,7 @@
         <v>359</v>
       </c>
       <c r="Y66" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67">
@@ -25202,15 +25887,15 @@
         <v>314</v>
       </c>
       <c r="Y67" t="s">
-        <v>255</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>398</v>
+        <v>588</v>
       </c>
       <c r="Y68" t="s">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69">
@@ -25218,7 +25903,7 @@
         <v>360</v>
       </c>
       <c r="Y69" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70">
@@ -25226,7 +25911,7 @@
         <v>463</v>
       </c>
       <c r="Y70" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71">
@@ -25234,7 +25919,7 @@
         <v>350</v>
       </c>
       <c r="Y71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72">
@@ -25242,7 +25927,7 @@
         <v>464</v>
       </c>
       <c r="Y72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -25250,7 +25935,7 @@
         <v>307</v>
       </c>
       <c r="Y73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
@@ -25258,7 +25943,7 @@
         <v>568</v>
       </c>
       <c r="Y74" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75">
@@ -25266,7 +25951,7 @@
         <v>389</v>
       </c>
       <c r="Y75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76">
@@ -25274,7 +25959,7 @@
         <v>325</v>
       </c>
       <c r="Y76" t="s">
-        <v>508</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77">
@@ -25282,7 +25967,7 @@
         <v>331</v>
       </c>
       <c r="Y77" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78">
@@ -25290,7 +25975,7 @@
         <v>336</v>
       </c>
       <c r="Y78" t="s">
-        <v>89</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79">
@@ -25298,7 +25983,7 @@
         <v>482</v>
       </c>
       <c r="Y79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
@@ -25306,7 +25991,7 @@
         <v>377</v>
       </c>
       <c r="Y80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
@@ -25314,7 +25999,7 @@
         <v>315</v>
       </c>
       <c r="Y81" t="s">
-        <v>555</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
@@ -25322,7 +26007,7 @@
         <v>326</v>
       </c>
       <c r="Y82" t="s">
-        <v>92</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83">
@@ -25330,7 +26015,7 @@
         <v>332</v>
       </c>
       <c r="Y83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
@@ -25338,256 +26023,264 @@
         <v>321</v>
       </c>
       <c r="Y84" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>316</v>
+        <v>589</v>
       </c>
       <c r="Y85" t="s">
-        <v>543</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="Y86" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Y87" t="s">
-        <v>507</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y88" t="s">
-        <v>242</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="Y89" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Y90" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Y91" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="Y92" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="Y93" t="s">
-        <v>490</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y94" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95">
+      <c r="G95" t="s">
+        <v>323</v>
+      </c>
       <c r="Y95" t="s">
-        <v>245</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>562</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>95</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>570</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>498</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>109</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE82734-94DE-8A4E-AB96-ED1D7D12F6EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8DE82734-94DE-8A4E-AB96-ED1D7D12F6EE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10980" windowWidth="51200" windowHeight="21020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10980"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="io_showcase" sheetId="6" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="io_showcase" r:id="rId2" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="620">
   <si>
     <t>description</t>
   </si>
@@ -1929,13 +1929,20 @@
   </si>
   <si>
     <t>lastly, move the final HTML to cloud</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2012,8 +2019,210 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2038,8 +2247,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2077,168 +2592,916 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="74">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="7" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="10" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="13" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="16" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="22" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="13" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2272,7 +3535,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2297,10 +3560,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2335,7 +3598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2370,7 +3633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2464,21 +3727,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2495,7 +3758,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2547,26 +3810,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2661,7 +3924,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2756,7 +4019,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2842,7 +4105,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2925,7 +4188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2999,7 +4262,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3067,7 +4330,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +4392,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3185,7 +4448,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3232,7 +4495,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3273,7 +4536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3311,7 +4574,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3349,7 +4612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3384,7 +4647,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3419,7 +4682,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3451,7 +4714,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3483,7 +4746,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3509,7 +4772,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3529,7 +4792,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3549,7 +4812,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3569,7 +4832,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3589,7 +4852,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3609,7 +4872,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -3629,7 +4892,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -3649,7 +4912,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -3669,7 +4932,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3689,7 +4952,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3709,7 +4972,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3726,7 +4989,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3743,7 +5006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>409</v>
       </c>
@@ -3757,7 +5020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -3771,7 +5034,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>62</v>
       </c>
@@ -3782,7 +5045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>63</v>
       </c>
@@ -3793,7 +5056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>64</v>
       </c>
@@ -3804,7 +5067,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>65</v>
       </c>
@@ -3815,7 +5078,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>66</v>
       </c>
@@ -3826,7 +5089,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>67</v>
       </c>
@@ -3837,7 +5100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>68</v>
       </c>
@@ -3848,7 +5111,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>69</v>
       </c>
@@ -3859,7 +5122,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
@@ -3867,7 +5130,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
@@ -3875,641 +5138,647 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
-        <v>285</v>
+        <v>618</v>
       </c>
       <c r="Z42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Z47" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Z48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Z49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Z50" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Z51" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Z54" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Z55" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Z56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z57" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
-        <v>299</v>
+        <v>619</v>
       </c>
       <c r="Z58" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="Z59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="Z60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="Z66" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="Z67" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
-        <v>520</v>
+        <v>309</v>
       </c>
       <c r="Z68" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="Z69" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
-        <v>405</v>
+        <v>520</v>
       </c>
       <c r="Z70" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Z71" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Z72" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
-        <v>505</v>
+        <v>406</v>
       </c>
       <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="Z75" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="Z76" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="Z77" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Z78" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
-        <v>424</v>
+        <v>282</v>
       </c>
       <c r="Z79" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="Z80" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
-        <v>266</v>
+        <v>424</v>
       </c>
       <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="Z82" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="Z83" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z84" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
-        <v>523</v>
+        <v>283</v>
       </c>
       <c r="Z85" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Z86" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
-        <v>284</v>
+        <v>523</v>
       </c>
       <c r="Z87" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z88" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Z89" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="Z90" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="Z91" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Z92" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="Z93" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="Z94" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="G95" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="Z95" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="96">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
       <c r="Z96" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="97">
+      <c r="G97" t="s">
+        <v>274</v>
+      </c>
       <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="140">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A43" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="66.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.33203125" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="14.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="66.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="34.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="27.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="43.1640625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +5809,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>535</v>
       </c>
@@ -4561,7 +5830,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4578,7 +5847,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4623,7 +5892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>537</v>
       </c>
@@ -4650,7 +5919,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>540</v>
@@ -4679,7 +5948,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>544</v>
@@ -4708,7 +5977,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>546</v>
@@ -4735,7 +6004,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
@@ -4760,7 +6029,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -4785,7 +6054,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -4810,7 +6079,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4835,7 +6104,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
@@ -4858,7 +6127,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -4881,7 +6150,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -4904,7 +6173,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -4929,7 +6198,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
@@ -4954,7 +6223,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>559</v>
       </c>
@@ -4985,7 +6254,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -5010,7 +6279,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5" t="s">
         <v>565</v>
@@ -5037,7 +6306,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -5064,7 +6333,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
@@ -5089,7 +6358,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>583</v>
       </c>
@@ -5120,7 +6389,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>568</v>
@@ -5149,7 +6418,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5" t="s">
         <v>596</v>
@@ -5178,7 +6447,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5" t="s">
         <v>597</v>
@@ -5207,7 +6476,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5" t="s">
         <v>570</v>
@@ -5236,7 +6505,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13" t="s">
@@ -5263,7 +6532,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13" t="s">
@@ -5290,7 +6559,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13" t="s">
@@ -5315,7 +6584,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
@@ -5338,7 +6607,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13" t="s">
@@ -5363,7 +6632,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13" t="s">
@@ -5386,7 +6655,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5" t="s">
         <v>577</v>
@@ -5415,7 +6684,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5" t="s">
         <v>602</v>
@@ -5444,7 +6713,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5" t="s">
         <v>597</v>
@@ -5473,7 +6742,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13" t="s">
@@ -5498,7 +6767,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13" t="s">
@@ -5523,7 +6792,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13" t="s">
@@ -5548,7 +6817,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5" t="s">
         <v>582</v>
@@ -5575,7 +6844,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>599</v>
       </c>
@@ -5604,7 +6873,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>604</v>
@@ -5633,7 +6902,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>597</v>
@@ -5662,7 +6931,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13" t="s">
@@ -5689,7 +6958,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5" t="s">
         <v>605</v>
@@ -5718,7 +6987,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5" t="s">
         <v>597</v>
@@ -5747,7 +7016,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13" t="s">
@@ -5774,7 +7043,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5" t="s">
         <v>606</v>
@@ -5803,7 +7072,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5" t="s">
         <v>597</v>
@@ -5832,7 +7101,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13" t="s">
@@ -5859,7 +7128,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5" t="s">
         <v>607</v>
@@ -5888,7 +7157,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5" t="s">
         <v>597</v>
@@ -5917,7 +7186,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5" t="s">
         <v>615</v>
@@ -5944,7 +7213,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13" t="s">
@@ -5971,7 +7240,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5" t="s">
         <v>608</v>
@@ -6000,7 +7269,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5" t="s">
         <v>597</v>
@@ -6029,7 +7298,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="30" t="s">
@@ -6056,7 +7325,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5" t="s">
         <v>617</v>
@@ -6081,7 +7350,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>590</v>
       </c>
@@ -6108,7 +7377,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13" t="s">
@@ -6131,7 +7400,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -6148,7 +7417,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -6165,7 +7434,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -6182,7 +7451,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -6199,7 +7468,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -6216,7 +7485,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -6233,7 +7502,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -6250,7 +7519,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -6267,7 +7536,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -6284,7 +7553,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -6301,7 +7570,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -6318,7 +7587,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -6335,7 +7604,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -6352,7 +7621,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -6369,7 +7638,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -6386,7 +7655,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -6403,7 +7672,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -6420,7 +7689,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -6437,7 +7706,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -6454,7 +7723,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -6471,7 +7740,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -6488,7 +7757,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -6505,7 +7774,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6522,7 +7791,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6539,7 +7808,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6556,7 +7825,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6573,7 +7842,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6590,7 +7859,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6607,7 +7876,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6624,7 +7893,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6641,7 +7910,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6658,7 +7927,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6675,7 +7944,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6692,7 +7961,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6709,7 +7978,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6726,7 +7995,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6743,7 +8012,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6760,7 +8029,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6777,7 +8046,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6794,7 +8063,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6811,7 +8080,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6828,7 +8097,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6845,7 +8114,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6862,7 +8131,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6879,7 +8148,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6896,7 +8165,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6913,7 +8182,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6930,7 +8199,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6947,7 +8216,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6964,7 +8233,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6981,7 +8250,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6998,7 +8267,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -7015,7 +8284,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -7032,7 +8301,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -7049,7 +8318,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -7066,7 +8335,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -7083,7 +8352,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -7100,7 +8369,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -7118,7 +8387,7 @@
       <c r="O118" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -7126,24 +8395,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C118" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C118" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D118" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D118" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -45,14 +45,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="621">
   <si>
     <t>description</t>
   </si>
@@ -1935,6 +1935,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1945,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2221,8 +2224,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2553,8 +2657,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3244,6 +3501,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3251,7 +3834,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3448,52 +4031,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="34" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="37" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="40" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="43" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="49" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="40" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3818,7 +4449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3903,24 +4534,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3998,24 +4626,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>534</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4086,22 +4711,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4169,22 +4794,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4243,22 +4868,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4311,22 +4936,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4373,22 +4998,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4429,22 +5054,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4485,13 +5110,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4526,13 +5151,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4564,13 +5189,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4602,13 +5227,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4637,13 +5262,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4672,13 +5297,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -4704,13 +5329,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4728,7 +5353,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>620</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -4736,13 +5361,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4760,15 +5385,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4785,10 +5410,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4805,10 +5433,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4825,10 +5453,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4845,10 +5473,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4865,10 +5493,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4885,10 +5513,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4905,16 +5533,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -4925,16 +5553,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -4945,16 +5573,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -4965,16 +5593,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -4985,13 +5613,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -5002,13 +5630,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -5016,21 +5644,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5041,7 +5666,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5052,7 +5677,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5063,7 +5688,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5074,7 +5699,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5085,7 +5710,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5096,7 +5721,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5107,7 +5732,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5118,7 +5743,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -5126,7 +5751,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5134,7 +5759,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5142,7 +5767,7 @@
       <c r="G42" t="s">
         <v>618</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5150,7 +5775,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5158,7 +5783,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5166,7 +5791,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5174,7 +5799,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5182,7 +5807,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5190,7 +5815,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5198,7 +5823,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5206,7 +5831,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>531</v>
       </c>
     </row>
@@ -5214,7 +5839,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5222,7 +5847,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5230,7 +5855,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5238,7 +5863,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5246,7 +5871,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5254,7 +5879,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5262,7 +5887,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5270,7 +5895,7 @@
       <c r="G58" t="s">
         <v>619</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5278,7 +5903,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5286,7 +5911,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5294,7 +5919,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5302,7 +5927,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5310,7 +5935,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5318,7 +5943,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5326,7 +5951,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5334,7 +5959,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5342,7 +5967,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5350,7 +5975,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5358,7 +5983,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5366,7 +5991,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5374,7 +5999,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5382,7 +6007,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5390,7 +6015,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5398,7 +6023,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5406,7 +6031,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5414,7 +6039,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5422,7 +6047,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5430,7 +6055,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -5438,7 +6063,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5446,7 +6071,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5454,7 +6079,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5462,7 +6087,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -5470,7 +6095,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5478,7 +6103,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5486,7 +6111,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5494,7 +6119,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -5502,7 +6127,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5510,7 +6135,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5518,7 +6143,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5526,7 +6151,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5534,7 +6159,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5542,7 +6167,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5550,7 +6175,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5558,7 +6183,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5566,7 +6191,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5574,7 +6199,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5582,167 +6207,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="625">
   <si>
     <t>description</t>
   </si>
@@ -1938,6 +1938,18 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1957,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2325,8 +2337,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2810,8 +3125,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -3827,6 +4601,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3834,7 +5586,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="138">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4079,52 +5831,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="61" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="64" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="67" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="70" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="76" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="67" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="88" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="91" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="94" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="97" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="65" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="103" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="94" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="115" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="118" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="121" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="124" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="130" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="121" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4449,7 +6345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5534,7 +7430,7 @@
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>621</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -5554,7 +7450,7 @@
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -5574,7 +7470,7 @@
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -5594,7 +7490,7 @@
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -5614,7 +7510,7 @@
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -5631,7 +7527,7 @@
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -5645,7 +7541,7 @@
         <v>212</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -5656,7 +7552,7 @@
         <v>271</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -5667,7 +7563,7 @@
         <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -5678,7 +7574,7 @@
         <v>504</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -5689,7 +7585,7 @@
         <v>256</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35">
@@ -5700,7 +7596,7 @@
         <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -5711,7 +7607,7 @@
         <v>303</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -5722,7 +7618,7 @@
         <v>257</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -5733,7 +7629,7 @@
         <v>304</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -5744,7 +7640,7 @@
         <v>263</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
@@ -5752,7 +7648,7 @@
         <v>76</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
@@ -5760,7 +7656,7 @@
         <v>208</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
@@ -5768,7 +7664,7 @@
         <v>618</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
@@ -5776,7 +7672,7 @@
         <v>285</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -5784,7 +7680,7 @@
         <v>296</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -5792,7 +7688,7 @@
         <v>297</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -5800,7 +7696,7 @@
         <v>339</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -5808,7 +7704,7 @@
         <v>338</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -5816,7 +7712,7 @@
         <v>207</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -5824,7 +7720,7 @@
         <v>316</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
@@ -5832,7 +7728,7 @@
         <v>335</v>
       </c>
       <c r="Y50" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
@@ -5840,7 +7736,7 @@
         <v>363</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -5848,7 +7744,7 @@
         <v>298</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53">
@@ -5856,7 +7752,7 @@
         <v>351</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -5864,7 +7760,7 @@
         <v>327</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -5872,7 +7768,7 @@
         <v>264</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -5880,7 +7776,7 @@
         <v>288</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
@@ -5888,7 +7784,7 @@
         <v>289</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
@@ -5896,7 +7792,7 @@
         <v>619</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -5904,7 +7800,7 @@
         <v>290</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
@@ -5912,7 +7808,7 @@
         <v>299</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
@@ -5920,7 +7816,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
@@ -5928,7 +7824,7 @@
         <v>333</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -5936,7 +7832,7 @@
         <v>305</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -5944,7 +7840,7 @@
         <v>306</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -5952,7 +7848,7 @@
         <v>364</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -5960,7 +7856,7 @@
         <v>365</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -5968,7 +7864,7 @@
         <v>341</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -5976,7 +7872,7 @@
         <v>309</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
@@ -5984,7 +7880,7 @@
         <v>265</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
@@ -5992,7 +7888,7 @@
         <v>520</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
@@ -6000,7 +7896,7 @@
         <v>310</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
@@ -6008,7 +7904,7 @@
         <v>405</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
@@ -6016,7 +7912,7 @@
         <v>300</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
@@ -6024,7 +7920,7 @@
         <v>406</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -6032,7 +7928,7 @@
         <v>258</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -6040,7 +7936,7 @@
         <v>505</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -6048,7 +7944,7 @@
         <v>340</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -6056,7 +7952,7 @@
         <v>276</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -6064,7 +7960,7 @@
         <v>282</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
@@ -6072,7 +7968,7 @@
         <v>287</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
@@ -6080,7 +7976,7 @@
         <v>424</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
@@ -6088,7 +7984,7 @@
         <v>328</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -6096,7 +7992,7 @@
         <v>266</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -6104,7 +8000,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
@@ -6112,7 +8008,7 @@
         <v>283</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
@@ -6120,7 +8016,7 @@
         <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
@@ -6128,7 +8024,7 @@
         <v>523</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
@@ -6136,7 +8032,7 @@
         <v>267</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
@@ -6144,7 +8040,7 @@
         <v>284</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -6152,7 +8048,7 @@
         <v>268</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
@@ -6160,7 +8056,7 @@
         <v>269</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -6168,7 +8064,7 @@
         <v>301</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -6176,7 +8072,7 @@
         <v>307</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94">
@@ -6184,7 +8080,7 @@
         <v>291</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95">
@@ -6192,7 +8088,7 @@
         <v>336</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
@@ -6200,7 +8096,7 @@
         <v>273</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
@@ -6208,166 +8104,186 @@
         <v>274</v>
       </c>
       <c r="Y97" t="s">
-        <v>201</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>438</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>518</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="627">
   <si>
     <t>description</t>
   </si>
@@ -1950,6 +1950,12 @@
   </si>
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1963,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2640,8 +2646,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="167">
+  <fills count="194">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3584,8 +3691,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5579,6 +5839,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5586,7 +6172,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5975,52 +6561,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="142" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="145" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="148" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="151" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="154" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="157" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="148" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="160" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="160" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="163" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="151" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="169" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="172" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="175" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="178" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="184" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="175" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6726,7 +7360,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>625</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -6800,7 +7434,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -6862,7 +7496,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -6924,7 +7558,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -6980,7 +7614,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -7024,7 +7658,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -7065,7 +7699,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -7103,7 +7737,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -7141,7 +7775,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -7176,7 +7810,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -7211,7 +7845,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -7243,7 +7877,7 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -7275,7 +7909,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -7301,7 +7935,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -7324,7 +7958,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -7344,7 +7978,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -7364,7 +7998,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -7384,7 +8018,7 @@
         <v>616</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -7404,7 +8038,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -7424,7 +8058,7 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
@@ -7444,7 +8078,7 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
@@ -7464,7 +8098,7 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
@@ -7484,7 +8118,7 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
@@ -7504,7 +8138,7 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -7521,7 +8155,7 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -7538,7 +8172,7 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
         <v>111</v>
@@ -7549,7 +8183,7 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
         <v>112</v>
@@ -7560,7 +8194,7 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
         <v>113</v>
@@ -7571,7 +8205,7 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
         <v>114</v>
@@ -7582,7 +8216,7 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
         <v>622</v>
@@ -7593,7 +8227,7 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
         <v>115</v>
@@ -7604,7 +8238,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
         <v>116</v>
@@ -7615,7 +8249,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
         <v>206</v>
@@ -7626,7 +8260,7 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
         <v>117</v>
@@ -7637,7 +8271,7 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
         <v>334</v>
@@ -7645,7 +8279,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
         <v>433</v>
@@ -7653,7 +8287,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
         <v>522</v>
@@ -7661,7 +8295,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>618</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
         <v>388</v>
@@ -7669,7 +8303,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>618</v>
       </c>
       <c r="Y43" t="s">
         <v>118</v>
@@ -7677,7 +8311,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
         <v>119</v>
@@ -7685,7 +8319,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
         <v>120</v>
@@ -7693,7 +8327,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
         <v>121</v>
@@ -7701,7 +8335,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
         <v>122</v>
@@ -7709,7 +8343,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
         <v>123</v>
@@ -7717,7 +8351,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
         <v>434</v>
@@ -7725,7 +8359,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
         <v>209</v>
@@ -7733,7 +8367,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
         <v>75</v>
@@ -7741,7 +8375,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
         <v>531</v>
@@ -7749,7 +8383,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
         <v>124</v>
@@ -7757,7 +8391,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
         <v>125</v>
@@ -7765,7 +8399,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
         <v>126</v>
@@ -7773,7 +8407,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
         <v>490</v>
@@ -7781,7 +8415,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
         <v>459</v>
@@ -7789,7 +8423,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>619</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
         <v>127</v>
@@ -7797,7 +8431,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>619</v>
       </c>
       <c r="Y59" t="s">
         <v>342</v>
@@ -7805,7 +8439,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
         <v>460</v>
@@ -7813,7 +8447,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
         <v>128</v>
@@ -7821,7 +8455,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
         <v>129</v>
@@ -7829,7 +8463,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
         <v>130</v>
@@ -7837,7 +8471,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
         <v>131</v>
@@ -7845,7 +8479,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
         <v>132</v>
@@ -7853,7 +8487,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
         <v>133</v>
@@ -7861,7 +8495,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
         <v>134</v>
@@ -7869,7 +8503,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
         <v>435</v>
@@ -7877,7 +8511,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
         <v>468</v>
@@ -7885,7 +8519,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
         <v>210</v>
@@ -7893,7 +8527,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
         <v>384</v>
@@ -7901,7 +8535,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
         <v>436</v>
@@ -7909,7 +8543,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
         <v>135</v>
@@ -7917,7 +8551,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
         <v>136</v>
@@ -7925,7 +8559,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
         <v>137</v>
@@ -7933,7 +8567,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
         <v>138</v>
@@ -7941,7 +8575,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
         <v>193</v>
@@ -7949,7 +8583,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
         <v>194</v>
@@ -7957,7 +8591,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
         <v>448</v>
@@ -7965,7 +8599,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
         <v>461</v>
@@ -7973,7 +8607,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
         <v>139</v>
@@ -7981,7 +8615,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
         <v>140</v>
@@ -7989,7 +8623,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
         <v>141</v>
@@ -7997,7 +8631,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
         <v>491</v>
@@ -8005,7 +8639,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
         <v>142</v>
@@ -8013,7 +8647,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
         <v>143</v>
@@ -8021,7 +8655,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
         <v>195</v>
@@ -8029,7 +8663,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
         <v>492</v>
@@ -8037,7 +8671,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
         <v>196</v>
@@ -8045,7 +8679,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
         <v>449</v>
@@ -8053,7 +8687,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
         <v>197</v>
@@ -8061,7 +8695,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
         <v>198</v>
@@ -8069,15 +8703,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
         <v>211</v>
@@ -8085,7 +8719,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
         <v>144</v>
@@ -8093,7 +8727,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
         <v>199</v>
@@ -8101,13 +8735,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y97" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>274</v>
+      </c>
       <c r="Y98" t="s">
         <v>438</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5285" uniqueCount="628">
   <si>
     <t>description</t>
   </si>
@@ -1956,6 +1956,9 @@
   </si>
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1966,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2747,8 +2750,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="194">
+  <fills count="221">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3844,8 +3948,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6165,6 +6422,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6172,7 +6755,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="170">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6609,52 +7192,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="166" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="169" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="169" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="172" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="172" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="175" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="175" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="178" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="178" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="181" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="184" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="184" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="175" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="175" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="187" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="187" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="187" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="190" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="190" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="178" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="178" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="193" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="196" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="199" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="202" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="205" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="208" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="211" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="202" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="214" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="214" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="217" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="205" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="220" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6979,7 +7610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8714,7 +9345,7 @@
         <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>211</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95">
@@ -8722,7 +9353,7 @@
         <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
@@ -8730,7 +9361,7 @@
         <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
@@ -8738,7 +9369,7 @@
         <v>273</v>
       </c>
       <c r="Y97" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98">
@@ -8746,181 +9377,186 @@
         <v>274</v>
       </c>
       <c r="Y98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>146</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>439</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>159</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>623</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>160</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/io-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/io-showcase.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6